--- a/results/empty-48-48.map_10t_25i_0.25h_processed.xlsx
+++ b/results/empty-48-48.map_10t_25i_0.25h_processed.xlsx
@@ -542,28 +542,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -595,28 +595,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="C3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="D3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="E3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="F3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="G3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="H3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="I3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,28 +648,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="C4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="D4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="E4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="F4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="G4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="H4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="I4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="C5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="D5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="E5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="F5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="G5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="H5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="I5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -807,28 +807,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="C7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="D7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="E7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="F7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="G7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="H7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="I7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -860,28 +860,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="C8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="D8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="E8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="F8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="G8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="H8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="I8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="C9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="D9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="E9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="F9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="G9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="H9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="I9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -966,28 +966,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103.63</v>
+        <v>99.974</v>
       </c>
       <c r="C11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1072,28 +1072,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="C12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="D12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="E12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="F12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="G12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="H12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="I12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1125,28 +1125,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="C13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="D13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="E13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="F13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="G13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="H13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="I13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="C14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="D14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="E14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="F14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="G14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="H14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="I14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="C15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="D15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="E15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="F15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="G15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="H15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="I15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1284,28 +1284,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="C16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="D16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="E16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="F16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="G16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="H16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="I16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1337,28 +1337,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="C17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="D17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="E17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="F17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="G17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="H17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="I17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="C18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="D18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="G18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="I18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1443,28 +1443,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="C19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="D19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="E19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="F19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="G19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="H19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="I19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1549,28 +1549,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="C21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="D21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="E21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="F21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="G21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="H21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="I21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1602,28 +1602,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="C22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="D22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="E22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="F22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="G22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="H22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="I22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1655,28 +1655,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="C23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="D23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="E23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="F23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="G23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="H23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="I23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1708,28 +1708,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="C24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="D24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="E24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="F24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="G24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="H24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="I24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1761,28 +1761,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="E25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="F25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="G25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="I25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1814,28 +1814,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="C26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="D26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="E26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="F26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="G26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="H26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="I26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1940,31 +1940,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007086548372171819</v>
+        <v>0.006009135744534433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4236535630188882</v>
+        <v>0.346741572022438</v>
       </c>
       <c r="F2" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08998765726573765</v>
+        <v>0.05488607962615788</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2495710604125634</v>
+        <v>0.2355140030849725</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04501857073046267</v>
+        <v>0.02833814255427569</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02822291047777981</v>
+        <v>0.01943577697966248</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002977598109282553</v>
+        <v>0.002302634296938777</v>
       </c>
     </row>
     <row r="3">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3760</v>
+        <v>2433</v>
       </c>
       <c r="D3" t="n">
-        <v>1.17148970044218</v>
+        <v>0.751887418795377</v>
       </c>
       <c r="E3" t="n">
-        <v>2.182982616010122</v>
+        <v>1.419042543973774</v>
       </c>
       <c r="F3" t="n">
-        <v>3760</v>
+        <v>2433</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2334579357411712</v>
+        <v>0.1204236394260079</v>
       </c>
       <c r="H3" t="n">
-        <v>1.532401964417659</v>
+        <v>1.04079809144605</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2131526673911139</v>
+        <v>0.1076540084322914</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1748486502328888</v>
+        <v>0.1317863645963371</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007595279603265226</v>
+        <v>0.00464837474282831</v>
       </c>
     </row>
     <row r="4">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1571</v>
+        <v>1193</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5221952667925507</v>
+        <v>0.3752238634042442</v>
       </c>
       <c r="E4" t="n">
-        <v>1.141285701072775</v>
+        <v>0.8362283119931817</v>
       </c>
       <c r="F4" t="n">
-        <v>1571</v>
+        <v>1193</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12224191124551</v>
+        <v>0.06807233951985836</v>
       </c>
       <c r="H4" t="n">
-        <v>0.785002202144824</v>
+        <v>0.606120734824799</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05363174725789577</v>
+        <v>0.03273679944686592</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1681217555887997</v>
+        <v>0.1204804938752204</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003219038830138743</v>
+        <v>0.002296986989676952</v>
       </c>
     </row>
     <row r="5">
@@ -2045,31 +2045,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009206334594637156</v>
+        <v>0.00947375048417598</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5542445660103112</v>
+        <v>0.6080861990340054</v>
       </c>
       <c r="F5" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1502324930625036</v>
+        <v>0.1494467742741108</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2659408112522215</v>
+        <v>0.266603542258963</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1051181246293709</v>
+        <v>0.1546859223162755</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01889728242531419</v>
+        <v>0.02305121114477515</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004123541410081089</v>
+        <v>0.00390828400850296</v>
       </c>
     </row>
     <row r="6">
@@ -2080,31 +2080,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4489</v>
+        <v>3317</v>
       </c>
       <c r="D6" t="n">
-        <v>1.373092311667278</v>
+        <v>0.9710607172455639</v>
       </c>
       <c r="E6" t="n">
-        <v>2.813007124932483</v>
+        <v>2.144130493979901</v>
       </c>
       <c r="F6" t="n">
-        <v>4489</v>
+        <v>3317</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3890455088112503</v>
+        <v>0.2976480916840956</v>
       </c>
       <c r="H6" t="n">
-        <v>1.62036148016341</v>
+        <v>1.167455692309886</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4283323955023661</v>
+        <v>0.3642160228919238</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3395802760496736</v>
+        <v>0.2872770924586803</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01016347843687981</v>
+        <v>0.007533855619840324</v>
       </c>
     </row>
     <row r="7">
@@ -2115,31 +2115,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1916</v>
+        <v>1879</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625052250106819</v>
+        <v>0.5287420586682856</v>
       </c>
       <c r="E7" t="n">
-        <v>1.291046280995943</v>
+        <v>1.216454823967069</v>
       </c>
       <c r="F7" t="n">
-        <v>1916</v>
+        <v>1879</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1967838129494339</v>
+        <v>0.1930692215682939</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7287762856576592</v>
+        <v>0.6307290614349768</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1211685939924791</v>
+        <v>0.1824433277361095</v>
       </c>
       <c r="J7" t="n">
-        <v>0.229254060308449</v>
+        <v>0.1947815917665139</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004315969417802989</v>
+        <v>0.004526168922893703</v>
       </c>
     </row>
     <row r="8">
@@ -2150,31 +2150,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1571</v>
+        <v>1193</v>
       </c>
       <c r="D8" t="n">
-        <v>1.755776875768788</v>
+        <v>1.063011694233865</v>
       </c>
       <c r="E8" t="n">
-        <v>2.607224195962772</v>
+        <v>1.580208553001285</v>
       </c>
       <c r="F8" t="n">
-        <v>1571</v>
+        <v>1193</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1248597187222913</v>
+        <v>0.07182196329813451</v>
       </c>
       <c r="H8" t="n">
-        <v>1.842004349222407</v>
+        <v>1.122150681680068</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05523171310778707</v>
+        <v>0.03399082773830742</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5725053567439318</v>
+        <v>0.3428696419578046</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003276703762821853</v>
+        <v>0.00245927763171494</v>
       </c>
     </row>
     <row r="9">
@@ -2185,11 +2185,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21304</v>
+        <v>21077</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>26.25036615715362</v>
+        <v>25.96017615601886</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2210,31 +2210,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005068553611636162</v>
+        <v>0.007702077971771359</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1802708019968122</v>
+        <v>0.2281443609390408</v>
       </c>
       <c r="F10" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0564738055691123</v>
+        <v>0.07599828485399485</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0512380984146148</v>
+        <v>0.07499773916788399</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03918969864025712</v>
+        <v>0.04015835514292121</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02561944595072418</v>
+        <v>0.02527372445911169</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002061025821603835</v>
+        <v>0.003022499266080558</v>
       </c>
     </row>
     <row r="11">
@@ -2245,31 +2245,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2213</v>
+        <v>3655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6967022623866796</v>
+        <v>1.074960549827665</v>
       </c>
       <c r="E11" t="n">
-        <v>1.231082877027802</v>
+        <v>1.754171361913905</v>
       </c>
       <c r="F11" t="n">
-        <v>2213</v>
+        <v>3655</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1320348342414945</v>
+        <v>0.1720439862692729</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8062339127063751</v>
+        <v>1.24878928239923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1146584480302408</v>
+        <v>0.1721282250946388</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1612036000005901</v>
+        <v>0.1336907526711002</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004745251382701099</v>
+        <v>0.006791985710151494</v>
       </c>
     </row>
     <row r="12">
@@ -2280,31 +2280,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1026</v>
+        <v>1705</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3201007944298908</v>
+        <v>0.5092812248039991</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6375598240410909</v>
+        <v>0.8807140620192513</v>
       </c>
       <c r="F12" t="n">
-        <v>1026</v>
+        <v>1705</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07068786630406976</v>
+        <v>0.09682397835422307</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3720836249412969</v>
+        <v>0.5913460502633825</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04119265452027321</v>
+        <v>0.04675847245380282</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1460469205630943</v>
+        <v>0.1332715505268425</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001965312287211418</v>
+        <v>0.003198654390871525</v>
       </c>
     </row>
     <row r="13">
@@ -2315,31 +2315,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007363715674728155</v>
+        <v>0.01253186690155417</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3322107839630917</v>
+        <v>0.5841859219362959</v>
       </c>
       <c r="F13" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1178627291228622</v>
+        <v>0.2084719024132937</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07414894481189549</v>
+        <v>0.1286712082801387</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1066844605375081</v>
+        <v>0.1970044141635299</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02210980304516852</v>
+        <v>0.03031684563029557</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003166541457176208</v>
+        <v>0.005204469081945717</v>
       </c>
     </row>
     <row r="14">
@@ -2350,31 +2350,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2762</v>
+        <v>5984</v>
       </c>
       <c r="D14" t="n">
-        <v>0.784999142982997</v>
+        <v>1.652303267270327</v>
       </c>
       <c r="E14" t="n">
-        <v>1.804786782013252</v>
+        <v>3.67717889091</v>
       </c>
       <c r="F14" t="n">
-        <v>2762</v>
+        <v>5984</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2497815082315356</v>
+        <v>0.5279489018721506</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9436813809443265</v>
+        <v>1.999501092359424</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2809031914221123</v>
+        <v>0.7785007216734812</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3083076116163284</v>
+        <v>0.3218104765983298</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006250767502933741</v>
+        <v>0.01317586796358228</v>
       </c>
     </row>
     <row r="15">
@@ -2385,31 +2385,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1359</v>
+        <v>2674</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3790734620997682</v>
+        <v>0.8898578902008012</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9248027909779921</v>
+        <v>1.793307484011166</v>
       </c>
       <c r="F15" t="n">
-        <v>1359</v>
+        <v>2674</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1431368304183707</v>
+        <v>0.2764540233183652</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4566992592299357</v>
+        <v>1.035240107448772</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1118549579987302</v>
+        <v>0.2412918180925772</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2022953397827223</v>
+        <v>0.2182614451739937</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003054495668038726</v>
+        <v>0.006341404048725963</v>
       </c>
     </row>
     <row r="16">
@@ -2420,31 +2420,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1026</v>
+        <v>1705</v>
       </c>
       <c r="D16" t="n">
-        <v>1.032344588078558</v>
+        <v>1.607151287957095</v>
       </c>
       <c r="E16" t="n">
-        <v>1.649809369002469</v>
+        <v>2.288211342995055</v>
       </c>
       <c r="F16" t="n">
-        <v>1026</v>
+        <v>1705</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07424060697667301</v>
+        <v>0.1031100708059967</v>
       </c>
       <c r="H16" t="n">
-        <v>1.085503628128208</v>
+        <v>1.692370284814388</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04230882879346609</v>
+        <v>0.04896420624572784</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4398174053058028</v>
+        <v>0.4303534834180027</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002070372109301388</v>
+        <v>0.003510227077640593</v>
       </c>
     </row>
     <row r="17">
@@ -2455,11 +2455,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19938</v>
+        <v>19784</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>26.24905953707639</v>
+        <v>26.02835806668736</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007418874767608941</v>
+        <v>0.007414959720335901</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2105360409477726</v>
+        <v>0.2532377958996221</v>
       </c>
       <c r="F18" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06656033010222018</v>
+        <v>0.0907084287609905</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07187067170161754</v>
+        <v>0.07718978950288147</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03578209725674242</v>
+        <v>0.04505220870487392</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02510884974617511</v>
+        <v>0.02657652308698744</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002989151980727911</v>
+        <v>0.003090482903644443</v>
       </c>
     </row>
     <row r="19">
@@ -2515,31 +2515,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3135</v>
+        <v>3644</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8594061600742862</v>
+        <v>1.101637868676335</v>
       </c>
       <c r="E19" t="n">
-        <v>1.454750625998713</v>
+        <v>1.892526293057017</v>
       </c>
       <c r="F19" t="n">
-        <v>3135</v>
+        <v>3644</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1484123397385702</v>
+        <v>0.2253706239862368</v>
       </c>
       <c r="H19" t="n">
-        <v>1.009475976927206</v>
+        <v>1.281845959485509</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1314933149842545</v>
+        <v>0.2026075994363055</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1410933283623308</v>
+        <v>0.1551669937325642</v>
       </c>
       <c r="K19" t="n">
-        <v>0.006590018281713128</v>
+        <v>0.006807597121223807</v>
       </c>
     </row>
     <row r="20">
@@ -2550,31 +2550,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1651</v>
+        <v>1714</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3936962293228135</v>
+        <v>0.5036962982267141</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7526923320256174</v>
+        <v>0.9374699130421504</v>
       </c>
       <c r="F20" t="n">
-        <v>1651</v>
+        <v>1714</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08901213202625513</v>
+        <v>0.1195213871542364</v>
       </c>
       <c r="H20" t="n">
-        <v>0.472323072841391</v>
+        <v>0.5877386754145846</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04242515121586621</v>
+        <v>0.05370689241681248</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1369668040424585</v>
+        <v>0.1639416994294152</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003047307138331234</v>
+        <v>0.00316695764195174</v>
       </c>
     </row>
     <row r="21">
@@ -2585,31 +2585,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01518997352104634</v>
+        <v>0.0113400244154036</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8085738068912178</v>
+        <v>0.5071915870066732</v>
       </c>
       <c r="F21" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2529921381501481</v>
+        <v>0.184862895286642</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1599269374273717</v>
+        <v>0.116699401056394</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3256434055510908</v>
+        <v>0.1646324879257008</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0459679301129654</v>
+        <v>0.02359643555246294</v>
       </c>
       <c r="K21" t="n">
-        <v>0.006687432993203402</v>
+        <v>0.004688391229137778</v>
       </c>
     </row>
     <row r="22">
@@ -2620,31 +2620,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5379</v>
+        <v>4615</v>
       </c>
       <c r="D22" t="n">
-        <v>1.080289077945054</v>
+        <v>1.340798623859882</v>
       </c>
       <c r="E22" t="n">
-        <v>2.938056778046302</v>
+        <v>2.865301931975409</v>
       </c>
       <c r="F22" t="n">
-        <v>5379</v>
+        <v>4615</v>
       </c>
       <c r="G22" t="n">
-        <v>0.481173288426362</v>
+        <v>0.402798087685369</v>
       </c>
       <c r="H22" t="n">
-        <v>1.384178786654957</v>
+        <v>1.596991354017518</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7154412200907245</v>
+        <v>0.4890650139423087</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3142765931552276</v>
+        <v>0.339527553296648</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01198279252275825</v>
+        <v>0.009674544911831617</v>
       </c>
     </row>
     <row r="23">
@@ -2655,31 +2655,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3122</v>
+        <v>2335</v>
       </c>
       <c r="D23" t="n">
-        <v>0.537618130678311</v>
+        <v>0.6419218287337571</v>
       </c>
       <c r="E23" t="n">
-        <v>1.667384242988192</v>
+        <v>1.4592209700495</v>
       </c>
       <c r="F23" t="n">
-        <v>3122</v>
+        <v>2335</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3243300184840336</v>
+        <v>0.2386754126055166</v>
       </c>
       <c r="H23" t="n">
-        <v>0.706434459076263</v>
+        <v>0.7659950801171362</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3884759128559381</v>
+        <v>0.1945257517509162</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2233255793107674</v>
+        <v>0.2410603504395112</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006829688441939652</v>
+        <v>0.005610574851743877</v>
       </c>
     </row>
     <row r="24">
@@ -2690,31 +2690,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1651</v>
+        <v>1714</v>
       </c>
       <c r="D24" t="n">
-        <v>1.131078381557018</v>
+        <v>1.631519990158267</v>
       </c>
       <c r="E24" t="n">
-        <v>1.77428480098024</v>
+        <v>2.578150828019716</v>
       </c>
       <c r="F24" t="n">
-        <v>1651</v>
+        <v>1714</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08877750707324594</v>
+        <v>0.1220754055539146</v>
       </c>
       <c r="H24" t="n">
-        <v>1.209464063751511</v>
+        <v>1.717849865788594</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04322599375154823</v>
+        <v>0.05570894619449973</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4204807162750512</v>
+        <v>0.6689475858584046</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003274964983575046</v>
+        <v>0.003525146516039968</v>
       </c>
     </row>
     <row r="25">
@@ -2725,11 +2725,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20353</v>
+        <v>22347</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>24.95406819402706</v>
+        <v>26.02196094405372</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2750,31 +2750,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="D26" t="n">
-        <v>0.006893340381793678</v>
+        <v>0.006553559913299978</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2215179259655997</v>
+        <v>0.1933858890552074</v>
       </c>
       <c r="F26" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07411188783589751</v>
+        <v>0.06370035838335752</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0713850794127211</v>
+        <v>0.06384596065618098</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0387460176134482</v>
+        <v>0.0341205196455121</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02653065451886505</v>
+        <v>0.02196385397110134</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002812186721712351</v>
+        <v>0.00248735211789608</v>
       </c>
     </row>
     <row r="27">
@@ -2785,31 +2785,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3220</v>
+        <v>2852</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9291394139872864</v>
+        <v>0.8711081796791404</v>
       </c>
       <c r="E27" t="n">
-        <v>1.609059846960008</v>
+        <v>1.456324653001502</v>
       </c>
       <c r="F27" t="n">
-        <v>3220</v>
+        <v>2852</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1891342068556696</v>
+        <v>0.1413551403675228</v>
       </c>
       <c r="H27" t="n">
-        <v>1.093458057264797</v>
+        <v>1.011566466768272</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1728988763643429</v>
+        <v>0.1390377045609057</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1288636595709249</v>
+        <v>0.1425544971134514</v>
       </c>
       <c r="K27" t="n">
-        <v>0.006110618123784661</v>
+        <v>0.00535246729850769</v>
       </c>
     </row>
     <row r="28">
@@ -2820,31 +2820,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1565</v>
+        <v>1398</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3974186825798824</v>
+        <v>0.4236066919984296</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7582220659824088</v>
+        <v>0.7630155459046364</v>
       </c>
       <c r="F28" t="n">
-        <v>1565</v>
+        <v>1398</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09547686297446489</v>
+        <v>0.08116673887707293</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4731320912251249</v>
+        <v>0.4925069418968633</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04517579241655767</v>
+        <v>0.04001191223505884</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1332776773488149</v>
+        <v>0.1390001761028543</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002932019880972803</v>
+        <v>0.00265276082791388</v>
       </c>
     </row>
     <row r="29">
@@ -2855,31 +2855,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1232698319945484</v>
+        <v>0.01075082423631102</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7839479630347341</v>
+        <v>0.6093977080890909</v>
       </c>
       <c r="F29" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2155369658721611</v>
+        <v>0.294133527437225</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2450801134109497</v>
+        <v>0.1084654487203807</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2665063971653581</v>
+        <v>0.1644728640094399</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03646766871679574</v>
+        <v>0.0260180103359744</v>
       </c>
       <c r="K29" t="n">
-        <v>0.005736660095863044</v>
+        <v>0.004340797546319664</v>
       </c>
     </row>
     <row r="30">
@@ -2890,31 +2890,31 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4601</v>
+        <v>4508</v>
       </c>
       <c r="D30" t="n">
-        <v>1.03898865391966</v>
+        <v>1.261609802604653</v>
       </c>
       <c r="E30" t="n">
-        <v>2.636009328067303</v>
+        <v>2.801206002011895</v>
       </c>
       <c r="F30" t="n">
-        <v>4601</v>
+        <v>4508</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4105561398901045</v>
+        <v>0.3949656893964857</v>
       </c>
       <c r="H30" t="n">
-        <v>1.303559222491458</v>
+        <v>1.513627695152536</v>
       </c>
       <c r="I30" t="n">
-        <v>0.595946985646151</v>
+        <v>0.5378763388143852</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2893228414468467</v>
+        <v>0.3184578559594229</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01029015018139035</v>
+        <v>0.009555422351695597</v>
       </c>
     </row>
     <row r="31">
@@ -2925,31 +2925,31 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2628</v>
+        <v>2187</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4897203778382391</v>
+        <v>0.6355037740431726</v>
       </c>
       <c r="E31" t="n">
-        <v>1.452044249977916</v>
+        <v>1.415074043907225</v>
       </c>
       <c r="F31" t="n">
-        <v>2628</v>
+        <v>2187</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2786319679580629</v>
+        <v>0.2274711399804801</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6373636545613408</v>
+        <v>0.7543790764175355</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3131954056443647</v>
+        <v>0.2009444881696254</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2020342791220173</v>
+        <v>0.2146246104966849</v>
       </c>
       <c r="K31" t="n">
-        <v>0.005853606970049441</v>
+        <v>0.004735156311653554</v>
       </c>
     </row>
     <row r="32">
@@ -2960,31 +2960,31 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1565</v>
+        <v>1398</v>
       </c>
       <c r="D32" t="n">
-        <v>1.196201805491</v>
+        <v>1.243339306907728</v>
       </c>
       <c r="E32" t="n">
-        <v>1.911676850984804</v>
+        <v>1.849328995100223</v>
       </c>
       <c r="F32" t="n">
-        <v>1565</v>
+        <v>1398</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1010427743894979</v>
+        <v>0.08525128709152341</v>
       </c>
       <c r="H32" t="n">
-        <v>1.274245430482551</v>
+        <v>1.316941096796654</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04662810766603798</v>
+        <v>0.04219046712387353</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4779855972155929</v>
+        <v>0.393833405803889</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00310836429707706</v>
+        <v>0.002860852284356952</v>
       </c>
     </row>
     <row r="33">
@@ -2995,11 +2995,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21213</v>
+        <v>19547</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>25.38763896899763</v>
+        <v>25.89197546709329</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -3020,31 +3020,31 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="D34" t="n">
-        <v>0.008076265454292297</v>
+        <v>0.006724454928189516</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4190125080058351</v>
+        <v>0.2007863010512665</v>
       </c>
       <c r="F34" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08983028680086136</v>
+        <v>0.06338660488836467</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08539417805150151</v>
+        <v>0.06829321209806949</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04535642766859382</v>
+        <v>0.03488226397894323</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1857443047920242</v>
+        <v>0.02356417186092585</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003351002931594849</v>
+        <v>0.002746654557995498</v>
       </c>
     </row>
     <row r="35">
@@ -3055,31 +3055,31 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3888</v>
+        <v>3093</v>
       </c>
       <c r="D35" t="n">
-        <v>1.147223234293051</v>
+        <v>0.8401335353264585</v>
       </c>
       <c r="E35" t="n">
-        <v>1.96922844403889</v>
+        <v>1.432865353999659</v>
       </c>
       <c r="F35" t="n">
-        <v>3888</v>
+        <v>3093</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2237453449051827</v>
+        <v>0.1415312862955034</v>
       </c>
       <c r="H35" t="n">
-        <v>1.344669799203984</v>
+        <v>0.9868890270590782</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1962001910433173</v>
+        <v>0.1324021045584232</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1743761941324919</v>
+        <v>0.1479183161864057</v>
       </c>
       <c r="K35" t="n">
-        <v>0.007520795916207135</v>
+        <v>0.006515841232612729</v>
       </c>
     </row>
     <row r="36">
@@ -3090,31 +3090,31 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1851</v>
+        <v>1588</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5004153701011091</v>
+        <v>0.3892685452010483</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9326372670475394</v>
+        <v>0.7305984150152653</v>
       </c>
       <c r="F36" t="n">
-        <v>1851</v>
+        <v>1588</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1171542369993404</v>
+        <v>0.08101068809628487</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5914235680829734</v>
+        <v>0.4639097257750109</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05135423329193145</v>
+        <v>0.04035213845781982</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1591130244778469</v>
+        <v>0.1338562606833875</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003545177751220763</v>
+        <v>0.002912952215410769</v>
       </c>
     </row>
     <row r="37">
@@ -3125,31 +3125,31 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01329517900012434</v>
+        <v>0.01688864221796393</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6632694449508563</v>
+        <v>0.9199528329772875</v>
       </c>
       <c r="F37" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2308794996934012</v>
+        <v>0.2635828263591975</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1434016489656642</v>
+        <v>0.1686200578697026</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2356320895487443</v>
+        <v>0.4107472763862461</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03179389075376093</v>
+        <v>0.05164033453911543</v>
       </c>
       <c r="K37" t="n">
-        <v>0.006072090822272003</v>
+        <v>0.006701004575006664</v>
       </c>
     </row>
     <row r="38">
@@ -3160,31 +3160,31 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5705</v>
+        <v>6515</v>
       </c>
       <c r="D38" t="n">
-        <v>1.399364900658838</v>
+        <v>1.298680871841498</v>
       </c>
       <c r="E38" t="n">
-        <v>3.378705905983225</v>
+        <v>3.785930206999183</v>
       </c>
       <c r="F38" t="n">
-        <v>5705</v>
+        <v>6515</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6150254308013245</v>
+        <v>0.5676876690704376</v>
       </c>
       <c r="H38" t="n">
-        <v>1.718067693174817</v>
+        <v>1.671840673778206</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6512600183486938</v>
+        <v>1.126425485243089</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3494295616401359</v>
+        <v>0.3670394993387163</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01251630089245737</v>
+        <v>0.01386554399505258</v>
       </c>
     </row>
     <row r="39">
@@ -3195,31 +3195,31 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2959</v>
+        <v>3319</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7659637731267139</v>
+        <v>0.6071107110474259</v>
       </c>
       <c r="E39" t="n">
-        <v>1.757851124973968</v>
+        <v>1.917187849991024</v>
       </c>
       <c r="F39" t="n">
-        <v>2959</v>
+        <v>3319</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3033900334266946</v>
+        <v>0.345759138581343</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9244278053520247</v>
+        <v>0.7891721014166251</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2799943512072787</v>
+        <v>0.5205397823592648</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2269165638135746</v>
+        <v>0.2331291509326547</v>
       </c>
       <c r="K39" t="n">
-        <v>0.006444343598559499</v>
+        <v>0.007834688061848283</v>
       </c>
     </row>
     <row r="40">
@@ -3230,31 +3230,31 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1851</v>
+        <v>1588</v>
       </c>
       <c r="D40" t="n">
-        <v>1.570733870263211</v>
+        <v>1.061753016663715</v>
       </c>
       <c r="E40" t="n">
-        <v>2.455738830030896</v>
+        <v>1.658335296902806</v>
       </c>
       <c r="F40" t="n">
-        <v>1851</v>
+        <v>1588</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1208526599220932</v>
+        <v>0.08419963181950152</v>
       </c>
       <c r="H40" t="n">
-        <v>1.662219523102976</v>
+        <v>1.137127137393691</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05245068878866732</v>
+        <v>0.04127383697777987</v>
       </c>
       <c r="J40" t="n">
-        <v>0.605990530573763</v>
+        <v>0.3837453612359241</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003704680129885674</v>
+        <v>0.003107011434622109</v>
       </c>
     </row>
     <row r="41">
@@ -3265,11 +3265,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21067</v>
+        <v>19572</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>25.13672106992453</v>
+        <v>25.41323394200299</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3290,31 +3290,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="D42" t="n">
-        <v>0.007501734187826514</v>
+        <v>0.007613330497406423</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2284964460413903</v>
+        <v>0.2508979539852589</v>
       </c>
       <c r="F42" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07699679268989712</v>
+        <v>0.08458493743091822</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07145587191917002</v>
+        <v>0.07721726957242936</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04106735612731427</v>
+        <v>0.0458830373827368</v>
       </c>
       <c r="J42" t="n">
-        <v>0.02847872395068407</v>
+        <v>0.0316719455877319</v>
       </c>
       <c r="K42" t="n">
-        <v>0.002745150588452816</v>
+        <v>0.002969555906020105</v>
       </c>
     </row>
     <row r="43">
@@ -3325,31 +3325,31 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3494</v>
+        <v>3362</v>
       </c>
       <c r="D43" t="n">
-        <v>1.078093086834997</v>
+        <v>1.010760005796328</v>
       </c>
       <c r="E43" t="n">
-        <v>1.837482308037579</v>
+        <v>1.749266087077558</v>
       </c>
       <c r="F43" t="n">
-        <v>3494</v>
+        <v>3362</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1910481919767335</v>
+        <v>0.1907868603011593</v>
       </c>
       <c r="H43" t="n">
-        <v>1.25500558805652</v>
+        <v>1.179237639182247</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1913448846898973</v>
+        <v>0.1749866828322411</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1726977380458266</v>
+        <v>0.1785217532888055</v>
       </c>
       <c r="K43" t="n">
-        <v>0.006720058736391366</v>
+        <v>0.006369683425873518</v>
       </c>
     </row>
     <row r="44">
@@ -3360,31 +3360,31 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1525</v>
+        <v>1638</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4884262807900086</v>
+        <v>0.4782361522084102</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8927880179835483</v>
+        <v>0.90350594103802</v>
       </c>
       <c r="F44" t="n">
-        <v>1525</v>
+        <v>1638</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0994159112451598</v>
+        <v>0.1097410699585453</v>
       </c>
       <c r="H44" t="n">
-        <v>0.564350321656093</v>
+        <v>0.5588498065480962</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04800697520840913</v>
+        <v>0.05393112951423973</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1699264567578211</v>
+        <v>0.1689032276626676</v>
       </c>
       <c r="K44" t="n">
-        <v>0.002896397490985692</v>
+        <v>0.003040593350306153</v>
       </c>
     </row>
     <row r="45">
@@ -3395,31 +3395,31 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="D45" t="n">
-        <v>0.009958817739970982</v>
+        <v>0.01047205203212798</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4416742960456759</v>
+        <v>0.4667239609407261</v>
       </c>
       <c r="F45" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1653199727879837</v>
+        <v>0.1761778058717027</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1038758996874094</v>
+        <v>0.1082894024439156</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1308817064855248</v>
+        <v>0.1395739250583574</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02599614928476512</v>
+        <v>0.02611665287986398</v>
       </c>
       <c r="K45" t="n">
-        <v>0.004425772232934833</v>
+        <v>0.00445278431288898</v>
       </c>
     </row>
     <row r="46">
@@ -3430,31 +3430,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5013</v>
+        <v>4591</v>
       </c>
       <c r="D46" t="n">
-        <v>1.458311976981349</v>
+        <v>1.423745903884992</v>
       </c>
       <c r="E46" t="n">
-        <v>3.132823585066944</v>
+        <v>2.9161294370424</v>
       </c>
       <c r="F46" t="n">
-        <v>5013</v>
+        <v>4591</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4359909925842658</v>
+        <v>0.4002470020204782</v>
       </c>
       <c r="H46" t="n">
-        <v>1.737606112263165</v>
+        <v>1.680902457679622</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5658314197789878</v>
+        <v>0.4579351567663252</v>
       </c>
       <c r="J46" t="n">
-        <v>0.352886067237705</v>
+        <v>0.3402610021876171</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01120686822105199</v>
+        <v>0.009859706507995725</v>
       </c>
     </row>
     <row r="47">
@@ -3465,31 +3465,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2111</v>
+        <v>2176</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6556020320858806</v>
+        <v>0.6153006757376716</v>
       </c>
       <c r="E47" t="n">
-        <v>1.411963834078051</v>
+        <v>1.367773273028433</v>
       </c>
       <c r="F47" t="n">
-        <v>2111</v>
+        <v>2176</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2180080229882151</v>
+        <v>0.2268692450597882</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7708236814942211</v>
+        <v>0.7329295974923298</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1552727659000084</v>
+        <v>0.1584053208352998</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2511970947962254</v>
+        <v>0.2316776773659512</v>
       </c>
       <c r="K47" t="n">
-        <v>0.004707313026301563</v>
+        <v>0.005232865689322352</v>
       </c>
     </row>
     <row r="48">
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1525</v>
+        <v>1638</v>
       </c>
       <c r="D48" t="n">
-        <v>1.640935863135383</v>
+        <v>1.544400232145563</v>
       </c>
       <c r="E48" t="n">
-        <v>2.425547033897601</v>
+        <v>2.311975943041034</v>
       </c>
       <c r="F48" t="n">
-        <v>1525</v>
+        <v>1638</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1016986718168482</v>
+        <v>0.116117401397787</v>
       </c>
       <c r="H48" t="n">
-        <v>1.719132737489417</v>
+        <v>1.627657104865648</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04955749225337058</v>
+        <v>0.05536095832940191</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5433361171744764</v>
+        <v>0.4999484979780391</v>
       </c>
       <c r="K48" t="n">
-        <v>0.003103780210949481</v>
+        <v>0.003376521053723991</v>
       </c>
     </row>
     <row r="49">
@@ -3535,11 +3535,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19310</v>
+        <v>21761</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>25.51795300305821</v>
+        <v>26.06398050184362</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -3560,31 +3560,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006792810629121959</v>
+        <v>0.009301243582740426</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2031150560360402</v>
+        <v>0.2415220639668405</v>
       </c>
       <c r="F50" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0657728296937421</v>
+        <v>0.07778911269269884</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06696076306980103</v>
+        <v>0.08851860731374472</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03599513950757682</v>
+        <v>0.03747406275942922</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0243144576670602</v>
+        <v>0.0236956657608971</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002630745992064476</v>
+        <v>0.003671423764899373</v>
       </c>
     </row>
     <row r="51">
@@ -3595,31 +3595,31 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3079</v>
+        <v>4150</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8890015356009826</v>
+        <v>1.162345258169807</v>
       </c>
       <c r="E51" t="n">
-        <v>1.517149019986391</v>
+        <v>1.846976345055737</v>
       </c>
       <c r="F51" t="n">
-        <v>3079</v>
+        <v>4150</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1547904817853123</v>
+        <v>0.1654078564606607</v>
       </c>
       <c r="H51" t="n">
-        <v>1.040842256625183</v>
+        <v>1.363111400743946</v>
       </c>
       <c r="I51" t="n">
-        <v>0.148339964565821</v>
+        <v>0.1622586501762271</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1495388603070751</v>
+        <v>0.1247490763198584</v>
       </c>
       <c r="K51" t="n">
-        <v>0.005806370754726231</v>
+        <v>0.007786617148667574</v>
       </c>
     </row>
     <row r="52">
@@ -3630,31 +3630,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1474</v>
+        <v>2039</v>
       </c>
       <c r="D52" t="n">
-        <v>0.405788698932156</v>
+        <v>0.5244038214441389</v>
       </c>
       <c r="E52" t="n">
-        <v>0.757070979103446</v>
+        <v>1.015038741985336</v>
       </c>
       <c r="F52" t="n">
-        <v>1474</v>
+        <v>2039</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08435844874475151</v>
+        <v>0.0972127232234925</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4784866182599217</v>
+        <v>0.6186086423695087</v>
       </c>
       <c r="I52" t="n">
-        <v>0.04220600822009146</v>
+        <v>0.04214430705178529</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1411937269149348</v>
+        <v>0.2422309259418398</v>
       </c>
       <c r="K52" t="n">
-        <v>0.002768747042864561</v>
+        <v>0.003751227864995599</v>
       </c>
     </row>
     <row r="53">
@@ -3665,31 +3665,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01231366873253137</v>
+        <v>0.01949251047335565</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6391661739908159</v>
+        <v>1.098846320062876</v>
       </c>
       <c r="F53" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1962659689597785</v>
+        <v>0.3459869625512511</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1238046881044284</v>
+        <v>0.212695884052664</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2599414233118296</v>
+        <v>0.4510987047106028</v>
       </c>
       <c r="J53" t="n">
-        <v>0.03988006338477135</v>
+        <v>0.05630292440764606</v>
       </c>
       <c r="K53" t="n">
-        <v>0.005347594036720693</v>
+        <v>0.008542618015781045</v>
       </c>
     </row>
     <row r="54">
@@ -3700,31 +3700,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5127</v>
+        <v>9290</v>
       </c>
       <c r="D54" t="n">
-        <v>1.137367842951789</v>
+        <v>2.056584603851661</v>
       </c>
       <c r="E54" t="n">
-        <v>3.031226301915012</v>
+        <v>5.220241122064181</v>
       </c>
       <c r="F54" t="n">
-        <v>5127</v>
+        <v>9290</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4622382037341595</v>
+        <v>0.8020014489302412</v>
       </c>
       <c r="H54" t="n">
-        <v>1.431796081596985</v>
+        <v>2.577998517430387</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7604945711791515</v>
+        <v>1.433770130039193</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3355309164617211</v>
+        <v>0.3307434279704466</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01156996528152376</v>
+        <v>0.02006590028759092</v>
       </c>
     </row>
     <row r="55">
@@ -3735,31 +3735,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2513</v>
+        <v>4383</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5530459628207609</v>
+        <v>0.9068296279292554</v>
       </c>
       <c r="E55" t="n">
-        <v>1.527286529075354</v>
+        <v>2.387914219056256</v>
       </c>
       <c r="F55" t="n">
-        <v>2513</v>
+        <v>4383</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2640523882582784</v>
+        <v>0.4492403586627916</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6931898692855611</v>
+        <v>1.135615122271702</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3226547569502145</v>
+        <v>0.5439464041264728</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2272532824426889</v>
+        <v>0.2231567855924368</v>
       </c>
       <c r="K55" t="n">
-        <v>0.005645381286740303</v>
+        <v>0.01027480326592922</v>
       </c>
     </row>
     <row r="56">
@@ -3770,31 +3770,31 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1474</v>
+        <v>2039</v>
       </c>
       <c r="D56" t="n">
-        <v>1.162565620499663</v>
+        <v>1.296260742354207</v>
       </c>
       <c r="E56" t="n">
-        <v>1.774059292976744</v>
+        <v>1.835570460068993</v>
       </c>
       <c r="F56" t="n">
-        <v>1474</v>
+        <v>2039</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08914406527765095</v>
+        <v>0.100883012986742</v>
       </c>
       <c r="H56" t="n">
-        <v>1.239033877965994</v>
+        <v>1.400018201791681</v>
       </c>
       <c r="I56" t="n">
-        <v>0.04365557443816215</v>
+        <v>0.04437857773154974</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3907656241208315</v>
+        <v>0.2744975654641166</v>
       </c>
       <c r="K56" t="n">
-        <v>0.002999969758093357</v>
+        <v>0.004133666283451021</v>
       </c>
     </row>
     <row r="57">
@@ -3805,11 +3805,11 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21929</v>
+        <v>21848</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>25.07572242734022</v>
+        <v>25.58779821335338</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -3830,31 +3830,31 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006448781350627542</v>
+        <v>0.007211086456663907</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2085208679782227</v>
+        <v>0.2151138980407268</v>
       </c>
       <c r="F58" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="G58" t="n">
-        <v>0.06777088285889477</v>
+        <v>0.07239956536795944</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06629617267753929</v>
+        <v>0.07082436000928283</v>
       </c>
       <c r="I58" t="n">
-        <v>0.03898879559710622</v>
+        <v>0.03732464904896915</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02527573541738093</v>
+        <v>0.02349218970630318</v>
       </c>
       <c r="K58" t="n">
-        <v>0.002705042832531035</v>
+        <v>0.002859728760086</v>
       </c>
     </row>
     <row r="59">
@@ -3865,31 +3865,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2987</v>
+        <v>3697</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8448220726568252</v>
+        <v>1.103203895618208</v>
       </c>
       <c r="E59" t="n">
-        <v>1.45356883702334</v>
+        <v>1.808403859031387</v>
       </c>
       <c r="F59" t="n">
-        <v>2987</v>
+        <v>3697</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1514594133477658</v>
+        <v>0.1798180736368522</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9882386797107756</v>
+        <v>1.280782422283664</v>
       </c>
       <c r="I59" t="n">
-        <v>0.139467405853793</v>
+        <v>0.18749865074642</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1512636517873034</v>
+        <v>0.1323509962530807</v>
       </c>
       <c r="K59" t="n">
-        <v>0.006333195837214589</v>
+        <v>0.006953718140721321</v>
       </c>
     </row>
     <row r="60">
@@ -3900,31 +3900,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1473</v>
+        <v>1625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4124396180268377</v>
+        <v>0.4865900218719617</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7699278760701418</v>
+        <v>0.8417260049609467</v>
       </c>
       <c r="F60" t="n">
-        <v>1473</v>
+        <v>1625</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08697693515568972</v>
+        <v>0.0939867798006162</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4845786431105807</v>
+        <v>0.5649302373640239</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04496062558609992</v>
+        <v>0.04351024818606675</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1426083932165056</v>
+        <v>0.1274801973486319</v>
       </c>
       <c r="K60" t="n">
-        <v>0.002765231649391353</v>
+        <v>0.00297922978643328</v>
       </c>
     </row>
     <row r="61">
@@ -3935,31 +3935,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01179596153087914</v>
+        <v>0.0127486502751708</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5564962920034304</v>
+        <v>0.5767122010001913</v>
       </c>
       <c r="F61" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1878311597974971</v>
+        <v>0.2045432135928422</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1201358103426173</v>
+        <v>0.1294872524449602</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1988853639923036</v>
+        <v>0.1931510851718485</v>
       </c>
       <c r="J61" t="n">
-        <v>0.03200309909880161</v>
+        <v>0.03016374818980694</v>
       </c>
       <c r="K61" t="n">
-        <v>0.004932757467031479</v>
+        <v>0.005184594308957458</v>
       </c>
     </row>
     <row r="62">
@@ -3970,31 +3970,31 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4494</v>
+        <v>6069</v>
       </c>
       <c r="D62" t="n">
-        <v>1.114042864297517</v>
+        <v>1.687387923826464</v>
       </c>
       <c r="E62" t="n">
-        <v>2.669928089948371</v>
+        <v>3.71359661698807</v>
       </c>
       <c r="F62" t="n">
-        <v>4494</v>
+        <v>6069</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4046142606530339</v>
+        <v>0.5264173295581713</v>
       </c>
       <c r="H62" t="n">
-        <v>1.37180575565435</v>
+        <v>2.030619121156633</v>
       </c>
       <c r="I62" t="n">
-        <v>0.534777972032316</v>
+        <v>0.7795652489876375</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3226992149138823</v>
+        <v>0.3279300299473107</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01009088708087802</v>
+        <v>0.01298626477364451</v>
       </c>
     </row>
     <row r="63">
@@ -4005,31 +4005,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2312</v>
+        <v>2584</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5677879811264575</v>
+        <v>0.7449905985267833</v>
       </c>
       <c r="E63" t="n">
-        <v>1.403322361991741</v>
+        <v>1.739707469008863</v>
       </c>
       <c r="F63" t="n">
-        <v>2312</v>
+        <v>2584</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2389899825211614</v>
+        <v>0.2654525083489716</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6934182809200138</v>
+        <v>0.8843176383525133</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2305217757821083</v>
+        <v>0.2353704909328371</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2221139563480392</v>
+        <v>0.3339346894063056</v>
       </c>
       <c r="K63" t="n">
-        <v>0.005110339378006756</v>
+        <v>0.005437816609628499</v>
       </c>
     </row>
     <row r="64">
@@ -4040,31 +4040,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1473</v>
+        <v>1625</v>
       </c>
       <c r="D64" t="n">
-        <v>1.197570839547552</v>
+        <v>1.462121232762001</v>
       </c>
       <c r="E64" t="n">
-        <v>1.844742152024992</v>
+        <v>2.072300974978134</v>
       </c>
       <c r="F64" t="n">
-        <v>1473</v>
+        <v>1625</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0884444311959669</v>
+        <v>0.09880646772217005</v>
       </c>
       <c r="H64" t="n">
-        <v>1.270512686809525</v>
+        <v>1.545816284022294</v>
       </c>
       <c r="I64" t="n">
-        <v>0.04606518789660186</v>
+        <v>0.04606440046336502</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4285864924313501</v>
+        <v>0.3686581057263538</v>
       </c>
       <c r="K64" t="n">
-        <v>0.002958306693471968</v>
+        <v>0.003370943944901228</v>
       </c>
     </row>
     <row r="65">
@@ -4075,11 +4075,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21587</v>
+        <v>20869</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>25.0621335391188</v>
+        <v>25.30939902679529</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -4100,31 +4100,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="D66" t="n">
-        <v>0.008522190153598785</v>
+        <v>0.006534095504321158</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2674465989693999</v>
+        <v>0.2076594040263444</v>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08996609319001436</v>
+        <v>0.06660796678625047</v>
       </c>
       <c r="H66" t="n">
-        <v>0.08914273942355067</v>
+        <v>0.06556410889606923</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04529563442338258</v>
+        <v>0.03897446114569902</v>
       </c>
       <c r="J66" t="n">
-        <v>0.02944069087971002</v>
+        <v>0.02633087092544883</v>
       </c>
       <c r="K66" t="n">
-        <v>0.003547559957951307</v>
+        <v>0.002582801971584558</v>
       </c>
     </row>
     <row r="67">
@@ -4135,31 +4135,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3872</v>
+        <v>2515</v>
       </c>
       <c r="D67" t="n">
-        <v>1.15040484839119</v>
+        <v>0.8968519765185192</v>
       </c>
       <c r="E67" t="n">
-        <v>1.936567886965349</v>
+        <v>1.467962204944342</v>
       </c>
       <c r="F67" t="n">
-        <v>3872</v>
+        <v>2515</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2153102465672418</v>
+        <v>0.1405187787022442</v>
       </c>
       <c r="H67" t="n">
-        <v>1.348626425140537</v>
+        <v>1.020053724991158</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1884901417652145</v>
+        <v>0.1245267250342295</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1539253477239981</v>
+        <v>0.1629891074262559</v>
       </c>
       <c r="K67" t="n">
-        <v>0.007459951215423644</v>
+        <v>0.005309000727720559</v>
       </c>
     </row>
     <row r="68">
@@ -4170,31 +4170,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1997</v>
+        <v>1287</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4756475664908066</v>
+        <v>0.3619352420791984</v>
       </c>
       <c r="E68" t="n">
-        <v>1.020630134968087</v>
+        <v>0.7075679820263758</v>
       </c>
       <c r="F68" t="n">
-        <v>1997</v>
+        <v>1287</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2397218596888706</v>
+        <v>0.07869509037118405</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5701498636044562</v>
+        <v>0.4252524541225284</v>
       </c>
       <c r="I68" t="n">
-        <v>0.05126993171870708</v>
+        <v>0.04170117457397282</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1448931915219873</v>
+        <v>0.1523735681548715</v>
       </c>
       <c r="K68" t="n">
-        <v>0.003711240016855299</v>
+        <v>0.002371154259890318</v>
       </c>
     </row>
     <row r="69">
@@ -4205,31 +4205,31 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01684784609824419</v>
+        <v>0.01308798382524401</v>
       </c>
       <c r="E69" t="n">
-        <v>1.034438960021362</v>
+        <v>0.5501149978954345</v>
       </c>
       <c r="F69" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4107416465412825</v>
+        <v>0.1806599968113005</v>
       </c>
       <c r="H69" t="n">
-        <v>0.185254315729253</v>
+        <v>0.117755981744267</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3609380747657269</v>
+        <v>0.20377622556407</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0490572020644322</v>
+        <v>0.03060368646401912</v>
       </c>
       <c r="K69" t="n">
-        <v>0.007994860294274986</v>
+        <v>0.004667351953685284</v>
       </c>
     </row>
     <row r="70">
@@ -4240,31 +4240,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7282</v>
+        <v>3126</v>
       </c>
       <c r="D70" t="n">
-        <v>1.555525043862872</v>
+        <v>0.8841627505607903</v>
       </c>
       <c r="E70" t="n">
-        <v>4.097209037048742</v>
+        <v>1.981197510962375</v>
       </c>
       <c r="F70" t="n">
-        <v>7282</v>
+        <v>3126</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6497419861843809</v>
+        <v>0.275584994466044</v>
       </c>
       <c r="H70" t="n">
-        <v>1.982724987552501</v>
+        <v>1.059847660711966</v>
       </c>
       <c r="I70" t="n">
-        <v>1.028986754943617</v>
+        <v>0.324047273141332</v>
       </c>
       <c r="J70" t="n">
-        <v>0.3771563385380432</v>
+        <v>0.2966769827762619</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01633547525852919</v>
+        <v>0.006716555682942271</v>
       </c>
     </row>
     <row r="71">
@@ -4275,31 +4275,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3823</v>
+        <v>1881</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6946224432904273</v>
+        <v>0.4471585609717295</v>
       </c>
       <c r="E71" t="n">
-        <v>2.015792025951669</v>
+        <v>1.169596738065593</v>
       </c>
       <c r="F71" t="n">
-        <v>3823</v>
+        <v>1881</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3942990481154993</v>
+        <v>0.2011030885623768</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9005261746933684</v>
+        <v>0.5535326926037669</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4345260907430202</v>
+        <v>0.1878918232396245</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2557853835169226</v>
+        <v>0.212014970369637</v>
       </c>
       <c r="K71" t="n">
-        <v>0.008461013669148088</v>
+        <v>0.004027055692858994</v>
       </c>
     </row>
     <row r="72">
@@ -4310,31 +4310,31 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1997</v>
+        <v>1287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.345775740570389</v>
+        <v>1.041628576815128</v>
       </c>
       <c r="E72" t="n">
-        <v>2.036282125045545</v>
+        <v>1.696404405985959</v>
       </c>
       <c r="F72" t="n">
-        <v>1997</v>
+        <v>1287</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1210930639645085</v>
+        <v>0.08198926167096943</v>
       </c>
       <c r="H72" t="n">
-        <v>1.442046321579255</v>
+        <v>1.106808621436357</v>
       </c>
       <c r="I72" t="n">
-        <v>0.05275340750813484</v>
+        <v>0.04268518229946494</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4053832744248211</v>
+        <v>0.4549300221260637</v>
       </c>
       <c r="K72" t="n">
-        <v>0.003948236932046711</v>
+        <v>0.002608718117699027</v>
       </c>
     </row>
     <row r="73">
@@ -4345,11 +4345,11 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22521</v>
+        <v>21844</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>25.61654001206625</v>
+        <v>25.48875334206969</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -4370,31 +4370,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="D74" t="n">
-        <v>0.007236184203065932</v>
+        <v>0.007101381779648364</v>
       </c>
       <c r="E74" t="n">
-        <v>0.224248101003468</v>
+        <v>0.2082237870199606</v>
       </c>
       <c r="F74" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="G74" t="n">
-        <v>0.06989754096139222</v>
+        <v>0.06562112970277667</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07414275198243558</v>
+        <v>0.06966861139517277</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04138208285439759</v>
+        <v>0.03746078896801919</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02752829040400684</v>
+        <v>0.02476338134147227</v>
       </c>
       <c r="K74" t="n">
-        <v>0.002932624076493084</v>
+        <v>0.002733478206209838</v>
       </c>
     </row>
     <row r="75">
@@ -4405,31 +4405,31 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3333</v>
+        <v>3097</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9223343920893967</v>
+        <v>0.8939192232210189</v>
       </c>
       <c r="E75" t="n">
-        <v>1.571964822011068</v>
+        <v>1.472295293002389</v>
       </c>
       <c r="F75" t="n">
-        <v>3333</v>
+        <v>3097</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1620565588818863</v>
+        <v>0.1437761639244854</v>
       </c>
       <c r="H75" t="n">
-        <v>1.087396508199163</v>
+        <v>1.044875404564664</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1529217511415482</v>
+        <v>0.1399590313667431</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1440901040332392</v>
+        <v>0.1202354017877951</v>
       </c>
       <c r="K75" t="n">
-        <v>0.006243612966500223</v>
+        <v>0.005796662531793118</v>
       </c>
     </row>
     <row r="76">
@@ -4440,31 +4440,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1649</v>
+        <v>1532</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4077603284968063</v>
+        <v>0.4087993362918496</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7713780980557203</v>
+        <v>0.7276309709995985</v>
       </c>
       <c r="F76" t="n">
-        <v>1649</v>
+        <v>1532</v>
       </c>
       <c r="G76" t="n">
-        <v>0.08896523958537728</v>
+        <v>0.08256964955944568</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4860727251507342</v>
+        <v>0.4821507965680212</v>
       </c>
       <c r="I76" t="n">
-        <v>0.04656415805220604</v>
+        <v>0.04247229441534728</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1379324807785451</v>
+        <v>0.1092512178001925</v>
       </c>
       <c r="K76" t="n">
-        <v>0.00308367982506752</v>
+        <v>0.002812547376379371</v>
       </c>
     </row>
     <row r="77">
@@ -4475,31 +4475,31 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0126896615838632</v>
+        <v>0.0125696292379871</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6721380829112604</v>
+        <v>0.6400551979895681</v>
       </c>
       <c r="F77" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2162548073101789</v>
+        <v>0.206008241744712</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1340430456912145</v>
+        <v>0.1269313499797136</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2635194549802691</v>
+        <v>0.2484652175335214</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03774262126535177</v>
+        <v>0.03914514870848507</v>
       </c>
       <c r="K77" t="n">
-        <v>0.005824174964800477</v>
+        <v>0.005239324877038598</v>
       </c>
     </row>
     <row r="78">
@@ -4510,31 +4510,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4776</v>
+        <v>4452</v>
       </c>
       <c r="D78" t="n">
-        <v>1.045954768895172</v>
+        <v>1.073045652359724</v>
       </c>
       <c r="E78" t="n">
-        <v>2.63325807696674</v>
+        <v>2.561754991998896</v>
       </c>
       <c r="F78" t="n">
-        <v>4776</v>
+        <v>4452</v>
       </c>
       <c r="G78" t="n">
-        <v>0.416448863921687</v>
+        <v>0.3878041841089725</v>
       </c>
       <c r="H78" t="n">
-        <v>1.315717141726054</v>
+        <v>1.317196604562923</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5775077996077016</v>
+        <v>0.5530241371598095</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2859854493290186</v>
+        <v>0.2677895810920745</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01055494346655905</v>
+        <v>0.009687541169114411</v>
       </c>
     </row>
     <row r="79">
@@ -4545,31 +4545,31 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2699</v>
+        <v>2484</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5230247102444991</v>
+        <v>0.6722319468390197</v>
       </c>
       <c r="E79" t="n">
-        <v>1.522182135027833</v>
+        <v>1.561028211028315</v>
       </c>
       <c r="F79" t="n">
-        <v>2699</v>
+        <v>2484</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2882624284829944</v>
+        <v>0.2606054140487686</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6770309010753408</v>
+        <v>0.81030282843858</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3170138251734897</v>
+        <v>0.280991405248642</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2182794797699898</v>
+        <v>0.1890255523612723</v>
       </c>
       <c r="K79" t="n">
-        <v>0.005975815001875162</v>
+        <v>0.005484110093675554</v>
       </c>
     </row>
     <row r="80">
@@ -4580,31 +4580,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1649</v>
+        <v>1532</v>
       </c>
       <c r="D80" t="n">
-        <v>1.225144042866305</v>
+        <v>1.187174047110602</v>
       </c>
       <c r="E80" t="n">
-        <v>1.905461405985989</v>
+        <v>1.731828568037599</v>
       </c>
       <c r="F80" t="n">
-        <v>1649</v>
+        <v>1532</v>
       </c>
       <c r="G80" t="n">
-        <v>0.09218865539878607</v>
+        <v>0.08574057859368622</v>
       </c>
       <c r="H80" t="n">
-        <v>1.3055298688123</v>
+        <v>1.26267104735598</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0480929589830339</v>
+        <v>0.04438596253748983</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4471749287331477</v>
+        <v>0.3271618131548166</v>
       </c>
       <c r="K80" t="n">
-        <v>0.003241982543841004</v>
+        <v>0.003099030698649585</v>
       </c>
     </row>
     <row r="81">
@@ -4615,11 +4615,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>20965</v>
+        <v>21069</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>25.2095581399044</v>
+        <v>25.44877722207457</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -4640,31 +4640,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="D82" t="n">
-        <v>0.007711526122875512</v>
+        <v>0.006806729361414909</v>
       </c>
       <c r="E82" t="n">
-        <v>0.231281163985841</v>
+        <v>0.2085099479882047</v>
       </c>
       <c r="F82" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07500252278987318</v>
+        <v>0.06832831585779786</v>
       </c>
       <c r="H82" t="n">
-        <v>0.08130201522726566</v>
+        <v>0.06669476442039013</v>
       </c>
       <c r="I82" t="n">
-        <v>0.03796823229640722</v>
+        <v>0.03813749784603715</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02418895834125578</v>
+        <v>0.02517279458697885</v>
       </c>
       <c r="K82" t="n">
-        <v>0.003428795142099261</v>
+        <v>0.002599981497041881</v>
       </c>
     </row>
     <row r="83">
@@ -4675,31 +4675,31 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4395</v>
+        <v>3104</v>
       </c>
       <c r="D83" t="n">
-        <v>1.279364495188929</v>
+        <v>0.9469657101435587</v>
       </c>
       <c r="E83" t="n">
-        <v>2.025954846059904</v>
+        <v>1.587637586984783</v>
       </c>
       <c r="F83" t="n">
-        <v>4395</v>
+        <v>3104</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1859123228350654</v>
+        <v>0.1659156882669777</v>
       </c>
       <c r="H83" t="n">
-        <v>1.488515577861108</v>
+        <v>1.101856630528346</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1894136150367558</v>
+        <v>0.1565739532234147</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1300676430109888</v>
+        <v>0.1396846546558663</v>
       </c>
       <c r="K83" t="n">
-        <v>0.008320565451867878</v>
+        <v>0.005826927837915719</v>
       </c>
     </row>
     <row r="84">
@@ -4710,31 +4710,31 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1909</v>
+        <v>1429</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5336543539306149</v>
+        <v>0.4212001712294295</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9035212500020862</v>
+        <v>0.7687008300563321</v>
       </c>
       <c r="F84" t="n">
-        <v>1909</v>
+        <v>1429</v>
       </c>
       <c r="G84" t="n">
-        <v>0.09829811484087259</v>
+        <v>0.08828589809127152</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6237246432574466</v>
+        <v>0.4913624085020274</v>
       </c>
       <c r="I84" t="n">
-        <v>0.04204462701454759</v>
+        <v>0.04342002666089684</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1258166845655069</v>
+        <v>0.1350689495448023</v>
       </c>
       <c r="K84" t="n">
-        <v>0.003580801538191736</v>
+        <v>0.002637632773257792</v>
       </c>
     </row>
     <row r="85">
@@ -4745,31 +4745,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01691499829757959</v>
+        <v>0.009911371977068484</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9447639369172975</v>
+        <v>0.4534029769711196</v>
       </c>
       <c r="F85" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="G85" t="n">
-        <v>0.290560046210885</v>
+        <v>0.1624321705894545</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1827337895520031</v>
+        <v>0.1028312362032011</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4057617543730885</v>
+        <v>0.148868024116382</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03822340141050518</v>
+        <v>0.02382880763616413</v>
       </c>
       <c r="K85" t="n">
-        <v>0.007549736299552023</v>
+        <v>0.004167283186689019</v>
       </c>
     </row>
     <row r="86">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>8907</v>
+        <v>4246</v>
       </c>
       <c r="D86" t="n">
-        <v>2.528108976664953</v>
+        <v>1.181021247291937</v>
       </c>
       <c r="E86" t="n">
-        <v>5.470478379051201</v>
+        <v>2.593521991977468</v>
       </c>
       <c r="F86" t="n">
-        <v>8907</v>
+        <v>4246</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7736410930519924</v>
+        <v>0.3701297695515677</v>
       </c>
       <c r="H86" t="n">
-        <v>3.037755989818834</v>
+        <v>1.412737054284662</v>
       </c>
       <c r="I86" t="n">
-        <v>1.25277728238143</v>
+        <v>0.4723982132272795</v>
       </c>
       <c r="J86" t="n">
-        <v>0.334333075908944</v>
+        <v>0.3041741552297026</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01984985172748566</v>
+        <v>0.009108886239118874</v>
       </c>
     </row>
     <row r="87">
@@ -4815,31 +4815,31 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3644</v>
+        <v>1969</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9710709477076307</v>
+        <v>0.6604399542557076</v>
       </c>
       <c r="E87" t="n">
-        <v>2.128418063977733</v>
+        <v>1.35979637503624</v>
       </c>
       <c r="F87" t="n">
-        <v>3644</v>
+        <v>1969</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3745681387372315</v>
+        <v>0.2054590904153883</v>
       </c>
       <c r="H87" t="n">
-        <v>1.162777453078888</v>
+        <v>0.7683776968624443</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3500279090367258</v>
+        <v>0.1672738863853738</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2123170616105199</v>
+        <v>0.2030113865621388</v>
       </c>
       <c r="K87" t="n">
-        <v>0.007895404240116477</v>
+        <v>0.004244060372002423</v>
       </c>
     </row>
     <row r="88">
@@ -4850,31 +4850,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1909</v>
+        <v>1429</v>
       </c>
       <c r="D88" t="n">
-        <v>1.432464178418741</v>
+        <v>1.272649293765426</v>
       </c>
       <c r="E88" t="n">
-        <v>2.011316454969347</v>
+        <v>1.899679624009877</v>
       </c>
       <c r="F88" t="n">
-        <v>1909</v>
+        <v>1429</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1033807174535468</v>
+        <v>0.09196307486854494</v>
       </c>
       <c r="H88" t="n">
-        <v>1.528862615698017</v>
+        <v>1.343735606060363</v>
       </c>
       <c r="I88" t="n">
-        <v>0.04387972329277545</v>
+        <v>0.04472617921419442</v>
       </c>
       <c r="J88" t="n">
-        <v>0.3204809927847236</v>
+        <v>0.4081164125818759</v>
       </c>
       <c r="K88" t="n">
-        <v>0.003863014979287982</v>
+        <v>0.00286509282886982</v>
       </c>
     </row>
     <row r="89">
@@ -4885,11 +4885,11 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>21628</v>
+        <v>20123</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>25.04876994201913</v>
+        <v>25.00619462912437</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -4910,31 +4910,31 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="D90" t="n">
-        <v>0.007580982288345695</v>
+        <v>0.007267431472428143</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2307608899427578</v>
+        <v>0.2155881649814546</v>
       </c>
       <c r="F90" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07559566479176283</v>
+        <v>0.07014220440760255</v>
       </c>
       <c r="H90" t="n">
-        <v>0.08080686524044722</v>
+        <v>0.07204504997935146</v>
       </c>
       <c r="I90" t="n">
-        <v>0.03808535123243928</v>
+        <v>0.03697871707845479</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02377994696144015</v>
+        <v>0.02516726055182517</v>
       </c>
       <c r="K90" t="n">
-        <v>0.003332715597935021</v>
+        <v>0.002903565997257829</v>
       </c>
     </row>
     <row r="91">
@@ -4945,31 +4945,31 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3949</v>
+        <v>3134</v>
       </c>
       <c r="D91" t="n">
-        <v>1.184422802529298</v>
+        <v>0.9396419366821647</v>
       </c>
       <c r="E91" t="n">
-        <v>1.898266913951375</v>
+        <v>1.5609431079356</v>
       </c>
       <c r="F91" t="n">
-        <v>3949</v>
+        <v>3134</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1828328293049708</v>
+        <v>0.1592289380496368</v>
       </c>
       <c r="H91" t="n">
-        <v>1.372298809699714</v>
+        <v>1.095558883273043</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1803876472404227</v>
+        <v>0.1543088348116726</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1337491484591737</v>
+        <v>0.1277944616740569</v>
       </c>
       <c r="K91" t="n">
-        <v>0.007519251783378422</v>
+        <v>0.005981845897622406</v>
       </c>
     </row>
     <row r="92">
@@ -4980,31 +4980,31 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1858</v>
+        <v>1608</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5165410412009805</v>
+        <v>0.4316329146968201</v>
       </c>
       <c r="E92" t="n">
-        <v>1.010509474086575</v>
+        <v>0.7783913819584996</v>
       </c>
       <c r="F92" t="n">
-        <v>1858</v>
+        <v>1608</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1016432042233646</v>
+        <v>0.09017733426298946</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6066086438950151</v>
+        <v>0.507638948969543</v>
       </c>
       <c r="I92" t="n">
-        <v>0.04335026140324771</v>
+        <v>0.04258388909511268</v>
       </c>
       <c r="J92" t="n">
-        <v>0.245440139900893</v>
+        <v>0.1262117299484089</v>
       </c>
       <c r="K92" t="n">
-        <v>0.003486419562250376</v>
+        <v>0.002962149563245475</v>
       </c>
     </row>
     <row r="93">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01414960867259651</v>
+        <v>0.01391669665463269</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7179830520180985</v>
+        <v>0.6674998429371044</v>
       </c>
       <c r="F93" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2536552927922457</v>
+        <v>0.2249342880677432</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1554478959878907</v>
+        <v>0.1401696634711698</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2500020638108253</v>
+        <v>0.2464489210397005</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03384351776912808</v>
+        <v>0.03463614010252059</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006919396459124982</v>
+        <v>0.00563838635571301</v>
       </c>
     </row>
     <row r="94">
@@ -5050,31 +5050,31 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7129</v>
+        <v>4791</v>
       </c>
       <c r="D94" t="n">
-        <v>2.136488649994135</v>
+        <v>1.224496799288318</v>
       </c>
       <c r="E94" t="n">
-        <v>4.516418176004663</v>
+        <v>2.806516073993407</v>
       </c>
       <c r="F94" t="n">
-        <v>7129</v>
+        <v>4791</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6413249053293839</v>
+        <v>0.4179023876786232</v>
       </c>
       <c r="H94" t="n">
-        <v>2.553223995608278</v>
+        <v>1.49046273867134</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9342351177474484</v>
+        <v>0.5675713557284325</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3308143761241809</v>
+        <v>0.2919099300634116</v>
       </c>
       <c r="K94" t="n">
-        <v>0.01571442431304604</v>
+        <v>0.01019312720745802</v>
       </c>
     </row>
     <row r="95">
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3259</v>
+        <v>2740</v>
       </c>
       <c r="D95" t="n">
-        <v>0.856251263525337</v>
+        <v>0.6177269155159593</v>
       </c>
       <c r="E95" t="n">
-        <v>1.915898576960899</v>
+        <v>1.566832470940426</v>
       </c>
       <c r="F95" t="n">
-        <v>3259</v>
+        <v>2740</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3362384871579707</v>
+        <v>0.2835505233379081</v>
       </c>
       <c r="H95" t="n">
-        <v>1.02950023766607</v>
+        <v>0.7666236283257604</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3022503290558234</v>
+        <v>0.2831018529832363</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2221588828833774</v>
+        <v>0.2116863974370062</v>
       </c>
       <c r="K95" t="n">
-        <v>0.007081069983541965</v>
+        <v>0.005818798672407866</v>
       </c>
     </row>
     <row r="96">
@@ -5120,31 +5120,31 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1858</v>
+        <v>1608</v>
       </c>
       <c r="D96" t="n">
-        <v>1.513902904116549</v>
+        <v>1.228761899401434</v>
       </c>
       <c r="E96" t="n">
-        <v>2.060277393087745</v>
+        <v>1.798529532970861</v>
       </c>
       <c r="F96" t="n">
-        <v>1858</v>
+        <v>1608</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1028032575268298</v>
+        <v>0.09204041911289096</v>
       </c>
       <c r="H96" t="n">
-        <v>1.603587565012276</v>
+        <v>1.30546434072312</v>
       </c>
       <c r="I96" t="n">
-        <v>0.04390933585818857</v>
+        <v>0.04378355492372066</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2955852212617174</v>
+        <v>0.3450092261191458</v>
       </c>
       <c r="K96" t="n">
-        <v>0.003663484938442707</v>
+        <v>0.003166318289004266</v>
       </c>
     </row>
     <row r="97">
@@ -5155,11 +5155,11 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>21342</v>
+        <v>21575</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>25.22842748998664</v>
+        <v>25.1534202148905</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -5180,31 +5180,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="D98" t="n">
-        <v>0.005772486096248031</v>
+        <v>0.005855721887201071</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1679878639988601</v>
+        <v>0.1848105359822512</v>
       </c>
       <c r="F98" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05223517760168761</v>
+        <v>0.06041534268297255</v>
       </c>
       <c r="H98" t="n">
-        <v>0.05380233563482761</v>
+        <v>0.05627351358998567</v>
       </c>
       <c r="I98" t="n">
-        <v>0.03092395071871579</v>
+        <v>0.03505850373767316</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0230026098433882</v>
+        <v>0.0245432915398851</v>
       </c>
       <c r="K98" t="n">
-        <v>0.002074900432489812</v>
+        <v>0.002187891979701817</v>
       </c>
     </row>
     <row r="99">
@@ -5215,31 +5215,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2137</v>
+        <v>2499</v>
       </c>
       <c r="D99" t="n">
-        <v>0.681071575731039</v>
+        <v>0.7930551784811541</v>
       </c>
       <c r="E99" t="n">
-        <v>1.268323394935578</v>
+        <v>1.33187093003653</v>
       </c>
       <c r="F99" t="n">
-        <v>2137</v>
+        <v>2499</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1148744150996208</v>
+        <v>0.1408325446536765</v>
       </c>
       <c r="H99" t="n">
-        <v>0.7883031810633838</v>
+        <v>0.9186039515770972</v>
       </c>
       <c r="I99" t="n">
-        <v>0.09856242581736296</v>
+        <v>0.1290077698649839</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2501053871819749</v>
+        <v>0.1243122429586947</v>
       </c>
       <c r="K99" t="n">
-        <v>0.004050742951221764</v>
+        <v>0.004695824347436428</v>
       </c>
     </row>
     <row r="100">
@@ -5250,31 +5250,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1055</v>
+        <v>1207</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3431112120160833</v>
+        <v>0.3768856025999412</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6298173969844356</v>
+        <v>0.8008726009866223</v>
       </c>
       <c r="F100" t="n">
-        <v>1055</v>
+        <v>1207</v>
       </c>
       <c r="G100" t="n">
-        <v>0.06553023168817163</v>
+        <v>0.08017186960205436</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3955689872382209</v>
+        <v>0.4363177674822509</v>
       </c>
       <c r="I100" t="n">
-        <v>0.03411583113484085</v>
+        <v>0.03997716750018299</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1269009576644748</v>
+        <v>0.2354718795977533</v>
       </c>
       <c r="K100" t="n">
-        <v>0.001991552649997175</v>
+        <v>0.002249308861792088</v>
       </c>
     </row>
     <row r="101">
@@ -5285,31 +5285,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00749606208410114</v>
+        <v>0.008318506763316691</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3275967539520934</v>
+        <v>0.379637976991944</v>
       </c>
       <c r="F101" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1184634090168402</v>
+        <v>0.1334852109430358</v>
       </c>
       <c r="H101" t="n">
-        <v>0.07717549346853048</v>
+        <v>0.0832191847730428</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1012552428292111</v>
+        <v>0.1247614469612017</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01941313361749053</v>
+        <v>0.02566519577521831</v>
       </c>
       <c r="K101" t="n">
-        <v>0.003198685124516487</v>
+        <v>0.003375925123691559</v>
       </c>
     </row>
     <row r="102">
@@ -5320,31 +5320,31 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3051</v>
+        <v>3247</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9099267033161595</v>
+        <v>0.9113555938238278</v>
       </c>
       <c r="E102" t="n">
-        <v>1.970229152939282</v>
+        <v>2.044940168969333</v>
       </c>
       <c r="F102" t="n">
-        <v>3051</v>
+        <v>3247</v>
       </c>
       <c r="G102" t="n">
-        <v>0.273397393990308</v>
+        <v>0.2838822455378249</v>
       </c>
       <c r="H102" t="n">
-        <v>1.085400271113031</v>
+        <v>1.092806216794997</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3198913973756135</v>
+        <v>0.3556721243076026</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2668045805767179</v>
+        <v>0.286440972937271</v>
       </c>
       <c r="K102" t="n">
-        <v>0.006911312462761998</v>
+        <v>0.007084154640324414</v>
       </c>
     </row>
     <row r="103">
@@ -5355,31 +5355,31 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1466</v>
+        <v>1664</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4676688048057258</v>
+        <v>0.4726398015627638</v>
       </c>
       <c r="E103" t="n">
-        <v>1.114757222938351</v>
+        <v>1.114772286033258</v>
       </c>
       <c r="F103" t="n">
-        <v>1466</v>
+        <v>1664</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2564088876824826</v>
+        <v>0.1767107587074861</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5482314272085205</v>
+        <v>0.565944901201874</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1142740049399436</v>
+        <v>0.1472805427620187</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1842470318078995</v>
+        <v>0.211185148335062</v>
       </c>
       <c r="K103" t="n">
-        <v>0.003256167750805616</v>
+        <v>0.003754937322810292</v>
       </c>
     </row>
     <row r="104">
@@ -5390,31 +5390,31 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1055</v>
+        <v>1207</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9668376530753449</v>
+        <v>1.119513176963665</v>
       </c>
       <c r="E104" t="n">
-        <v>1.500218023080379</v>
+        <v>1.754489568993449</v>
       </c>
       <c r="F104" t="n">
-        <v>1055</v>
+        <v>1207</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06637675419915468</v>
+        <v>0.08045494498219341</v>
       </c>
       <c r="H104" t="n">
-        <v>1.020680006593466</v>
+        <v>1.180468475795351</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0352136199362576</v>
+        <v>0.04138482187408954</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3695798389380798</v>
+        <v>0.442685047048144</v>
       </c>
       <c r="K104" t="n">
-        <v>0.002185384393669665</v>
+        <v>0.002460199524648488</v>
       </c>
     </row>
     <row r="105">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>19868</v>
+        <v>18278</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>25.65396355499979</v>
+        <v>25.68544725596439</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -5450,31 +5450,31 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="D106" t="n">
-        <v>0.007478993036784232</v>
+        <v>0.007617802242748439</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2330298529705033</v>
+        <v>0.2268210110487416</v>
       </c>
       <c r="F106" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="G106" t="n">
-        <v>0.07659984962083399</v>
+        <v>0.07165381987579167</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07967461098451167</v>
+        <v>0.07859425444621593</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03942632570397109</v>
+        <v>0.0384137611836195</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02486423030495644</v>
+        <v>0.02552317001391202</v>
       </c>
       <c r="K106" t="n">
-        <v>0.003338612499646842</v>
+        <v>0.003265327191911638</v>
       </c>
     </row>
     <row r="107">
@@ -5485,31 +5485,31 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3701</v>
+        <v>3475</v>
       </c>
       <c r="D107" t="n">
-        <v>1.052436226978898</v>
+        <v>1.045719757443294</v>
       </c>
       <c r="E107" t="n">
-        <v>1.741523261065595</v>
+        <v>1.659246025024913</v>
       </c>
       <c r="F107" t="n">
-        <v>3701</v>
+        <v>3475</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1717075975611806</v>
+        <v>0.1502599684754387</v>
       </c>
       <c r="H107" t="n">
-        <v>1.229372568777762</v>
+        <v>1.207921833381988</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1548202381236479</v>
+        <v>0.1343087716959417</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1584043300244957</v>
+        <v>0.1409842110006139</v>
       </c>
       <c r="K107" t="n">
-        <v>0.007084133336320519</v>
+        <v>0.006450381013564765</v>
       </c>
     </row>
     <row r="108">
@@ -5520,31 +5520,31 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1848</v>
+        <v>1860</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4923344606067985</v>
+        <v>0.4503278159536421</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8859125160379335</v>
+        <v>0.8223162109497935</v>
       </c>
       <c r="F108" t="n">
-        <v>1848</v>
+        <v>1860</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1009004577063024</v>
+        <v>0.09101424447726458</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5819308905629441</v>
+        <v>0.5365778313716874</v>
       </c>
       <c r="I108" t="n">
-        <v>0.04450192849617451</v>
+        <v>0.04442155885044485</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1449083932675421</v>
+        <v>0.1369436683598906</v>
       </c>
       <c r="K108" t="n">
-        <v>0.003521404811181128</v>
+        <v>0.003367475466802716</v>
       </c>
     </row>
     <row r="109">
@@ -5555,31 +5555,31 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01742293790448457</v>
+        <v>0.0178915043361485</v>
       </c>
       <c r="E109" t="n">
-        <v>1.07158771099057</v>
+        <v>0.9154724719701335</v>
       </c>
       <c r="F109" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4579960433766246</v>
+        <v>0.2877431275555864</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1735157372895628</v>
+        <v>0.1848328945925459</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3674838852602988</v>
+        <v>0.3675352233694866</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04693947860505432</v>
+        <v>0.04786236269865185</v>
       </c>
       <c r="K109" t="n">
-        <v>0.007081096060574055</v>
+        <v>0.007307290099561214</v>
       </c>
     </row>
     <row r="110">
@@ -5590,31 +5590,31 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>6700</v>
+        <v>6745</v>
       </c>
       <c r="D110" t="n">
-        <v>1.613844546605833</v>
+        <v>1.305542103247717</v>
       </c>
       <c r="E110" t="n">
-        <v>4.000532242003828</v>
+        <v>3.631015182007104</v>
       </c>
       <c r="F110" t="n">
-        <v>6700</v>
+        <v>6745</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5810394004220143</v>
+        <v>0.5872754912124947</v>
       </c>
       <c r="H110" t="n">
-        <v>1.99057654500939</v>
+        <v>1.690818803734146</v>
       </c>
       <c r="I110" t="n">
-        <v>1.012996962526813</v>
+        <v>0.9663554071448743</v>
       </c>
       <c r="J110" t="n">
-        <v>0.3624520302983001</v>
+        <v>0.3321306024445221</v>
       </c>
       <c r="K110" t="n">
-        <v>0.01494980126153678</v>
+        <v>0.01442348922137171</v>
       </c>
     </row>
     <row r="111">
@@ -5625,31 +5625,31 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3421</v>
+        <v>3627</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8203313574194908</v>
+        <v>0.6704933610744774</v>
       </c>
       <c r="E111" t="n">
-        <v>2.074881226057187</v>
+        <v>2.074349748087116</v>
       </c>
       <c r="F111" t="n">
-        <v>3421</v>
+        <v>3627</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3550214469432831</v>
+        <v>0.4869106971891597</v>
       </c>
       <c r="H111" t="n">
-        <v>1.005460927844979</v>
+        <v>0.8661633861484006</v>
       </c>
       <c r="I111" t="n">
-        <v>0.4482871200889349</v>
+        <v>0.453006325988099</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2390163420932367</v>
+        <v>0.2383356313221157</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0073776914505288</v>
+        <v>0.008630868629552424</v>
       </c>
     </row>
     <row r="112">
@@ -5660,31 +5660,31 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1848</v>
+        <v>1860</v>
       </c>
       <c r="D112" t="n">
-        <v>1.491773752961308</v>
+        <v>1.293680388247594</v>
       </c>
       <c r="E112" t="n">
-        <v>2.209171310998499</v>
+        <v>1.943729270016775</v>
       </c>
       <c r="F112" t="n">
-        <v>1848</v>
+        <v>1860</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1045441782334819</v>
+        <v>0.09524728870019317</v>
       </c>
       <c r="H112" t="n">
-        <v>1.586406334419735</v>
+        <v>1.385115372948349</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04581886017695069</v>
+        <v>0.04707558441441506</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4582112851785496</v>
+        <v>0.4019153352128342</v>
       </c>
       <c r="K112" t="n">
-        <v>0.003711086697876453</v>
+        <v>0.003705212962813675</v>
       </c>
     </row>
     <row r="113">
@@ -5695,11 +5695,11 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20830</v>
+        <v>21071</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
-        <v>25.43919122894295</v>
+        <v>25.63816184096504</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -5720,31 +5720,31 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="D114" t="n">
-        <v>0.006649275426752865</v>
+        <v>0.008148384629748762</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1857430600794032</v>
+        <v>0.2481578579172492</v>
       </c>
       <c r="F114" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="G114" t="n">
-        <v>0.05202782980632037</v>
+        <v>0.08107428229413927</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06911577074788511</v>
+        <v>0.08371566433925182</v>
       </c>
       <c r="I114" t="n">
-        <v>0.03052013262640685</v>
+        <v>0.04227461572736502</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02317760756704956</v>
+        <v>0.02783228468615562</v>
       </c>
       <c r="K114" t="n">
-        <v>0.002938672201707959</v>
+        <v>0.003433462115935981</v>
       </c>
     </row>
     <row r="115">
@@ -5755,31 +5755,31 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3053</v>
+        <v>3920</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7875226924661547</v>
+        <v>1.148520072223619</v>
       </c>
       <c r="E115" t="n">
-        <v>1.271283907000907</v>
+        <v>1.966453816974536</v>
       </c>
       <c r="F115" t="n">
-        <v>3053</v>
+        <v>3920</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1047079615527764</v>
+        <v>0.1797402122756466</v>
       </c>
       <c r="H115" t="n">
-        <v>0.927396239945665</v>
+        <v>1.335066631203517</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1022020796081051</v>
+        <v>0.1791989159537479</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1148854822386056</v>
+        <v>0.2432170438114554</v>
       </c>
       <c r="K115" t="n">
-        <v>0.005786356166936457</v>
+        <v>0.007341278484091163</v>
       </c>
     </row>
     <row r="116">
@@ -5790,31 +5790,31 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1644</v>
+        <v>1926</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3996677064569667</v>
+        <v>0.4951570105040446</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7002692639362067</v>
+        <v>0.8864868379896507</v>
       </c>
       <c r="F116" t="n">
-        <v>1644</v>
+        <v>1926</v>
       </c>
       <c r="G116" t="n">
-        <v>0.06803158554248512</v>
+        <v>0.1063249905128032</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4762305251788348</v>
+        <v>0.587560220155865</v>
       </c>
       <c r="I116" t="n">
-        <v>0.03546894690953195</v>
+        <v>0.04887206293642521</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1085650086170062</v>
+        <v>0.1296379587147385</v>
       </c>
       <c r="K116" t="n">
-        <v>0.003048304584808648</v>
+        <v>0.003596956259571016</v>
       </c>
     </row>
     <row r="117">
@@ -5825,31 +5825,31 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01814932201523334</v>
+        <v>0.01672004722058773</v>
       </c>
       <c r="E117" t="n">
-        <v>1.074181528063491</v>
+        <v>0.8253517940174788</v>
       </c>
       <c r="F117" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3178116403287277</v>
+        <v>0.2732115174876526</v>
       </c>
       <c r="H117" t="n">
-        <v>0.197902808431536</v>
+        <v>0.1738521733786911</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4688163360115141</v>
+        <v>0.3069269229890779</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05820684204809368</v>
+        <v>0.04524793184828013</v>
       </c>
       <c r="K117" t="n">
-        <v>0.008331310586072505</v>
+        <v>0.007018421543762088</v>
       </c>
     </row>
     <row r="118">
@@ -5860,31 +5860,31 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7477</v>
+        <v>6641</v>
       </c>
       <c r="D118" t="n">
-        <v>1.512697466649115</v>
+        <v>1.464675858267583</v>
       </c>
       <c r="E118" t="n">
-        <v>4.229135354980826</v>
+        <v>3.644703551894054</v>
       </c>
       <c r="F118" t="n">
-        <v>7477</v>
+        <v>6641</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6564431227743626</v>
+        <v>0.5760378548875451</v>
       </c>
       <c r="H118" t="n">
-        <v>1.951328802853823</v>
+        <v>1.839410654967651</v>
       </c>
       <c r="I118" t="n">
-        <v>1.240171914221719</v>
+        <v>0.8552263204474002</v>
       </c>
       <c r="J118" t="n">
-        <v>0.3204937665723264</v>
+        <v>0.3202858965378255</v>
       </c>
       <c r="K118" t="n">
-        <v>0.01647675060667098</v>
+        <v>0.01456134486943483</v>
       </c>
     </row>
     <row r="119">
@@ -5895,31 +5895,31 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4021</v>
+        <v>3417</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7615007793065161</v>
+        <v>0.6712068966589868</v>
       </c>
       <c r="E119" t="n">
-        <v>2.235997046926059</v>
+        <v>1.833295290009119</v>
       </c>
       <c r="F119" t="n">
-        <v>4021</v>
+        <v>3417</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4208834924502298</v>
+        <v>0.3547448659082875</v>
       </c>
       <c r="H119" t="n">
-        <v>0.9799649161286652</v>
+        <v>0.8564673356013373</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5819549268344417</v>
+        <v>0.3667314663762227</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2211186713539064</v>
+        <v>0.2278736609732732</v>
       </c>
       <c r="K119" t="n">
-        <v>0.008765307837165892</v>
+        <v>0.007363721146248281</v>
       </c>
     </row>
     <row r="120">
@@ -5930,31 +5930,31 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1644</v>
+        <v>1926</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9716143509140238</v>
+        <v>1.637457027682103</v>
       </c>
       <c r="E120" t="n">
-        <v>1.524977216031402</v>
+        <v>2.296685209032148</v>
       </c>
       <c r="F120" t="n">
-        <v>1644</v>
+        <v>1926</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0683573285350576</v>
+        <v>0.1083270278759301</v>
       </c>
       <c r="H120" t="n">
-        <v>1.048621931346133</v>
+        <v>1.731539420434274</v>
       </c>
       <c r="I120" t="n">
-        <v>0.03610801009926945</v>
+        <v>0.0504925197456032</v>
       </c>
       <c r="J120" t="n">
-        <v>0.3597126265522093</v>
+        <v>0.3914629959035665</v>
       </c>
       <c r="K120" t="n">
-        <v>0.003208147245459259</v>
+        <v>0.003850339679047465</v>
       </c>
     </row>
     <row r="121">
@@ -5965,11 +5965,11 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>19705</v>
+        <v>20797</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
-        <v>26.93094624683727</v>
+        <v>25.18640626978595</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -5990,31 +5990,31 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="D122" t="n">
-        <v>0.00619866547640413</v>
+        <v>0.007646927260793746</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2137084460118786</v>
+        <v>0.2581408449914306</v>
       </c>
       <c r="F122" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="G122" t="n">
-        <v>0.07575607090257108</v>
+        <v>0.09097160468809307</v>
       </c>
       <c r="H122" t="n">
-        <v>0.06579601555131376</v>
+        <v>0.07694166211877018</v>
       </c>
       <c r="I122" t="n">
-        <v>0.03924136643763632</v>
+        <v>0.04799017717596143</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02269429876469076</v>
+        <v>0.03061863395851105</v>
       </c>
       <c r="K122" t="n">
-        <v>0.002683627768419683</v>
+        <v>0.002952697221189737</v>
       </c>
     </row>
     <row r="123">
@@ -6025,31 +6025,31 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3110</v>
+        <v>3563</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9703409894136712</v>
+        <v>1.125750059611164</v>
       </c>
       <c r="E123" t="n">
-        <v>1.600747885997407</v>
+        <v>1.914437795057893</v>
       </c>
       <c r="F123" t="n">
-        <v>3110</v>
+        <v>3563</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1779838588554412</v>
+        <v>0.2196844147983938</v>
       </c>
       <c r="H123" t="n">
-        <v>1.120933881844394</v>
+        <v>1.308009221102111</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1545680100098252</v>
+        <v>0.1925730993971229</v>
       </c>
       <c r="J123" t="n">
-        <v>0.12297771172598</v>
+        <v>0.1668105879798532</v>
       </c>
       <c r="K123" t="n">
-        <v>0.006641744053922594</v>
+        <v>0.006772445631213486</v>
       </c>
     </row>
     <row r="124">
@@ -6060,31 +6060,31 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1497</v>
+        <v>1615</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4497228407999501</v>
+        <v>0.4951413690578192</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8139235330745578</v>
+        <v>0.9224742810474709</v>
       </c>
       <c r="F124" t="n">
-        <v>1497</v>
+        <v>1615</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09911268192809075</v>
+        <v>0.1152400197461247</v>
       </c>
       <c r="H124" t="n">
-        <v>0.5230550256092101</v>
+        <v>0.5742883651982993</v>
       </c>
       <c r="I124" t="n">
-        <v>0.04528373875655234</v>
+        <v>0.05287334672175348</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1354632197180763</v>
+        <v>0.1682049174560234</v>
       </c>
       <c r="K124" t="n">
-        <v>0.002792162471450865</v>
+        <v>0.002981723169796169</v>
       </c>
     </row>
     <row r="125">
@@ -6095,31 +6095,31 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="D125" t="n">
-        <v>0.01003292121458799</v>
+        <v>0.0101937671424821</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4872866959776729</v>
+        <v>0.4491011280333623</v>
       </c>
       <c r="F125" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1750442471820861</v>
+        <v>0.1711603557923809</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1080212383531034</v>
+        <v>0.105038320296444</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1625004300149158</v>
+        <v>0.1315012371633202</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02520526514854282</v>
+        <v>0.02530204888898879</v>
       </c>
       <c r="K125" t="n">
-        <v>0.004721847595646977</v>
+        <v>0.004381722421385348</v>
       </c>
     </row>
     <row r="126">
@@ -6130,31 +6130,31 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4070</v>
+        <v>4309</v>
       </c>
       <c r="D126" t="n">
-        <v>1.327690835460089</v>
+        <v>1.246206129086204</v>
       </c>
       <c r="E126" t="n">
-        <v>2.66640682099387</v>
+        <v>2.625384518061765</v>
       </c>
       <c r="F126" t="n">
-        <v>4070</v>
+        <v>4309</v>
       </c>
       <c r="G126" t="n">
-        <v>0.3650729812216014</v>
+        <v>0.3745645958697423</v>
       </c>
       <c r="H126" t="n">
-        <v>1.561698203207925</v>
+        <v>1.486401777015999</v>
       </c>
       <c r="I126" t="n">
-        <v>0.4083110686624423</v>
+        <v>0.4082969672745094</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2988703327719122</v>
+        <v>0.3216184142511338</v>
       </c>
       <c r="K126" t="n">
-        <v>0.009092639200389385</v>
+        <v>0.009389786748215556</v>
       </c>
     </row>
     <row r="127">
@@ -6165,31 +6165,31 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2111</v>
+        <v>2097</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6016216420102865</v>
+        <v>0.5896080125821754</v>
       </c>
       <c r="E127" t="n">
-        <v>1.34155169990845</v>
+        <v>1.315955465077423</v>
       </c>
       <c r="F127" t="n">
-        <v>2111</v>
+        <v>2097</v>
       </c>
       <c r="G127" t="n">
-        <v>0.2183567568426952</v>
+        <v>0.2164500544313341</v>
       </c>
       <c r="H127" t="n">
-        <v>0.7147310102591291</v>
+        <v>0.7034571461845189</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1724061275599524</v>
+        <v>0.1474767797626555</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2193878310499713</v>
+        <v>0.2316580096958205</v>
       </c>
       <c r="K127" t="n">
-        <v>0.004747283412143588</v>
+        <v>0.004596125218085945</v>
       </c>
     </row>
     <row r="128">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1497</v>
+        <v>1615</v>
       </c>
       <c r="D128" t="n">
-        <v>1.336820459109731</v>
+        <v>1.622795586008579</v>
       </c>
       <c r="E128" t="n">
-        <v>1.980139557039365</v>
+        <v>2.464452823973261</v>
       </c>
       <c r="F128" t="n">
-        <v>1497</v>
+        <v>1615</v>
       </c>
       <c r="G128" t="n">
-        <v>0.102427902398631</v>
+        <v>0.120762164820917</v>
       </c>
       <c r="H128" t="n">
-        <v>1.411787813180126</v>
+        <v>1.705050091957673</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0463747491594404</v>
+        <v>0.05521550914272666</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4080439646495506</v>
+        <v>0.5707320604706183</v>
       </c>
       <c r="K128" t="n">
-        <v>0.003008950501680374</v>
+        <v>0.003302767756395042</v>
       </c>
     </row>
     <row r="129">
@@ -6235,11 +6235,11 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>21410</v>
+        <v>21727</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>25.7087056459859</v>
+        <v>25.21973198675551</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -6260,31 +6260,31 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006955617340281606</v>
+        <v>0.00552878575399518</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2346318250056356</v>
+        <v>0.1733058369718492</v>
       </c>
       <c r="F130" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="G130" t="n">
-        <v>0.07683632615953684</v>
+        <v>0.05735134414862841</v>
       </c>
       <c r="H130" t="n">
-        <v>0.07309219019953161</v>
+        <v>0.05348946002777666</v>
       </c>
       <c r="I130" t="n">
-        <v>0.04469031863845885</v>
+        <v>0.03238891996443272</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02872915228363127</v>
+        <v>0.0220075297402218</v>
       </c>
       <c r="K130" t="n">
-        <v>0.002965320949442685</v>
+        <v>0.002078472869470716</v>
       </c>
     </row>
     <row r="131">
@@ -6295,31 +6295,31 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3492</v>
+        <v>2464</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9963857494294643</v>
+        <v>0.755358281894587</v>
       </c>
       <c r="E131" t="n">
-        <v>1.698887938051485</v>
+        <v>1.314742955961265</v>
       </c>
       <c r="F131" t="n">
-        <v>3492</v>
+        <v>2464</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1788727485109121</v>
+        <v>0.1337075205519795</v>
       </c>
       <c r="H131" t="n">
-        <v>1.164533014525659</v>
+        <v>0.8790117198368534</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1657786279683933</v>
+        <v>0.1295217999722809</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1624742597341537</v>
+        <v>0.1535792629001662</v>
       </c>
       <c r="K131" t="n">
-        <v>0.007421204354614019</v>
+        <v>0.00466497743036598</v>
       </c>
     </row>
     <row r="132">
@@ -6330,31 +6330,31 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1651</v>
+        <v>1149</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4609577765222639</v>
+        <v>0.3625572524033487</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8615648630075157</v>
+        <v>0.6860775159439072</v>
       </c>
       <c r="F132" t="n">
-        <v>1651</v>
+        <v>1149</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1010201880708337</v>
+        <v>0.07397914887405932</v>
       </c>
       <c r="H132" t="n">
-        <v>0.5416743386304006</v>
+        <v>0.4191855026874691</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0528752269456163</v>
+        <v>0.03780146525241435</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1540026416769251</v>
+        <v>0.1466600879793987</v>
       </c>
       <c r="K132" t="n">
-        <v>0.003116483450867236</v>
+        <v>0.002119533717632294</v>
       </c>
     </row>
     <row r="133">
@@ -6365,31 +6365,31 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01105756300967187</v>
+        <v>0.008030203054659069</v>
       </c>
       <c r="E133" t="n">
-        <v>0.534396075992845</v>
+        <v>0.3540302749024704</v>
       </c>
       <c r="F133" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1879708403721452</v>
+        <v>0.1272650398313999</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1185923594748601</v>
+        <v>0.0813185905572027</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1794555909000337</v>
+        <v>0.1122927088290453</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03031375259160995</v>
+        <v>0.0210347055690363</v>
       </c>
       <c r="K133" t="n">
-        <v>0.005225881235674024</v>
+        <v>0.003248523105867207</v>
       </c>
     </row>
     <row r="134">
@@ -6400,31 +6400,31 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5325</v>
+        <v>3532</v>
       </c>
       <c r="D134" t="n">
-        <v>1.338453127769753</v>
+        <v>0.9900115086929873</v>
       </c>
       <c r="E134" t="n">
-        <v>3.176861346932128</v>
+        <v>2.250024506938644</v>
       </c>
       <c r="F134" t="n">
-        <v>5325</v>
+        <v>3532</v>
       </c>
       <c r="G134" t="n">
-        <v>0.4800036051310599</v>
+        <v>0.3066947654588148</v>
       </c>
       <c r="H134" t="n">
-        <v>1.650875724037178</v>
+        <v>1.184196319081821</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6649739756248891</v>
+        <v>0.4080640936736017</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3377768934005871</v>
+        <v>0.3226456828415394</v>
       </c>
       <c r="K134" t="n">
-        <v>0.01212056376971304</v>
+        <v>0.007602192810736597</v>
       </c>
     </row>
     <row r="135">
@@ -6435,31 +6435,31 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2384</v>
+        <v>1621</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7258221547817811</v>
+        <v>0.4866741091245785</v>
       </c>
       <c r="E135" t="n">
-        <v>1.565503092017025</v>
+        <v>1.117614661925472</v>
       </c>
       <c r="F135" t="n">
-        <v>2384</v>
+        <v>1621</v>
       </c>
       <c r="G135" t="n">
-        <v>0.2525703464634717</v>
+        <v>0.1700301140081137</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8573109891731292</v>
+        <v>0.5745695154182613</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2117658231873065</v>
+        <v>0.1367799892323092</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2248035707743838</v>
+        <v>0.2229108804604039</v>
       </c>
       <c r="K135" t="n">
-        <v>0.005245814216323197</v>
+        <v>0.003881551790982485</v>
       </c>
     </row>
     <row r="136">
@@ -6470,31 +6470,31 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1651</v>
+        <v>1149</v>
       </c>
       <c r="D136" t="n">
-        <v>1.529040226363577</v>
+        <v>1.062578962533735</v>
       </c>
       <c r="E136" t="n">
-        <v>2.316815068013966</v>
+        <v>1.696063067065552</v>
       </c>
       <c r="F136" t="n">
-        <v>1651</v>
+        <v>1149</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1041542425518855</v>
+        <v>0.07545947027392685</v>
       </c>
       <c r="H136" t="n">
-        <v>1.612401159713045</v>
+        <v>1.121825712616555</v>
       </c>
       <c r="I136" t="n">
-        <v>0.05470405390951782</v>
+        <v>0.0395743508124724</v>
       </c>
       <c r="J136" t="n">
-        <v>0.532801894354634</v>
+        <v>0.4501613372704014</v>
       </c>
       <c r="K136" t="n">
-        <v>0.003358232206664979</v>
+        <v>0.00230505526997149</v>
       </c>
     </row>
     <row r="137">
@@ -6505,11 +6505,11 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>20082</v>
+        <v>17130</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>25.50049919483718</v>
+        <v>25.33816217177082</v>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
@@ -6530,31 +6530,31 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="D138" t="n">
-        <v>0.00690862478222698</v>
+        <v>0.007447689888067544</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2303766600089148</v>
+        <v>0.2463176310993731</v>
       </c>
       <c r="F138" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="G138" t="n">
-        <v>0.08488181629218161</v>
+        <v>0.08771624777000397</v>
       </c>
       <c r="H138" t="n">
-        <v>0.06715773232281208</v>
+        <v>0.0736952805891633</v>
       </c>
       <c r="I138" t="n">
-        <v>0.04354577814228833</v>
+        <v>0.04483796888962388</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02472862554714084</v>
+        <v>0.02900859760120511</v>
       </c>
       <c r="K138" t="n">
-        <v>0.00264551886357367</v>
+        <v>0.002824863418936729</v>
       </c>
     </row>
     <row r="139">
@@ -6565,31 +6565,31 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3315</v>
+        <v>3384</v>
       </c>
       <c r="D139" t="n">
-        <v>1.051425218465738</v>
+        <v>1.061567314551212</v>
       </c>
       <c r="E139" t="n">
-        <v>1.8184437219752</v>
+        <v>1.79400947492104</v>
       </c>
       <c r="F139" t="n">
-        <v>3315</v>
+        <v>3384</v>
       </c>
       <c r="G139" t="n">
-        <v>0.2211799293290824</v>
+        <v>0.2158166615990922</v>
       </c>
       <c r="H139" t="n">
-        <v>1.218115783529356</v>
+        <v>1.234324609744363</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1885475728195161</v>
+        <v>0.1798076840350404</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1652270527556539</v>
+        <v>0.1380418945336714</v>
       </c>
       <c r="K139" t="n">
-        <v>0.007132101571187377</v>
+        <v>0.006382796098478138</v>
       </c>
     </row>
     <row r="140">
@@ -6600,31 +6600,31 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1478</v>
+        <v>1594</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4869191891048104</v>
+        <v>0.4797937936382368</v>
       </c>
       <c r="E140" t="n">
-        <v>0.900655883946456</v>
+        <v>0.8792997800046578</v>
       </c>
       <c r="F140" t="n">
-        <v>1478</v>
+        <v>1594</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1125169915612787</v>
+        <v>0.1138457880588248</v>
       </c>
       <c r="H140" t="n">
-        <v>0.561709217261523</v>
+        <v>0.5575712638674304</v>
       </c>
       <c r="I140" t="n">
-        <v>0.05156956764403731</v>
+        <v>0.04833701089955866</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1640558950603008</v>
+        <v>0.1478756333235651</v>
       </c>
       <c r="K140" t="n">
-        <v>0.002829319448210299</v>
+        <v>0.00294433964882046</v>
       </c>
     </row>
     <row r="141">
@@ -6635,31 +6635,31 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00882110430393368</v>
+        <v>0.009506412083283067</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3606986149679869</v>
+        <v>0.5134142260067165</v>
       </c>
       <c r="F141" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1427830256288871</v>
+        <v>0.2727937318850309</v>
       </c>
       <c r="H141" t="n">
-        <v>0.09051051281858236</v>
+        <v>0.09858798887580633</v>
       </c>
       <c r="I141" t="n">
-        <v>0.09740410919766873</v>
+        <v>0.1066808082396165</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01673281658440828</v>
+        <v>0.02018995431717485</v>
       </c>
       <c r="K141" t="n">
-        <v>0.003784405998885632</v>
+        <v>0.004121427075006068</v>
       </c>
     </row>
     <row r="142">
@@ -6670,31 +6670,31 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3880</v>
+        <v>3883</v>
       </c>
       <c r="D142" t="n">
-        <v>1.20466832537204</v>
+        <v>1.15152443444822</v>
       </c>
       <c r="E142" t="n">
-        <v>2.460385148995556</v>
+        <v>2.341358523000963</v>
       </c>
       <c r="F142" t="n">
-        <v>3880</v>
+        <v>3883</v>
       </c>
       <c r="G142" t="n">
-        <v>0.3350907451240346</v>
+        <v>0.3374756976263598</v>
       </c>
       <c r="H142" t="n">
-        <v>1.417175023350865</v>
+        <v>1.362916002981365</v>
       </c>
       <c r="I142" t="n">
-        <v>0.3479435137705877</v>
+        <v>0.3163440835196525</v>
       </c>
       <c r="J142" t="n">
-        <v>0.3296668262919411</v>
+        <v>0.2937737415777519</v>
       </c>
       <c r="K142" t="n">
-        <v>0.008709431625902653</v>
+        <v>0.008391165407374501</v>
       </c>
     </row>
     <row r="143">
@@ -6705,31 +6705,31 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1799</v>
+        <v>2026</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5940317967906594</v>
+        <v>0.5543408243684098</v>
       </c>
       <c r="E143" t="n">
-        <v>1.238695802050643</v>
+        <v>1.216339253936894</v>
       </c>
       <c r="F143" t="n">
-        <v>1799</v>
+        <v>2026</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1889398357598111</v>
+        <v>0.2074259733781219</v>
       </c>
       <c r="H143" t="n">
-        <v>0.6937453496502712</v>
+        <v>0.6610555039951578</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1142214140854776</v>
+        <v>0.1197779378853738</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2275970546761528</v>
+        <v>0.2117309898603708</v>
       </c>
       <c r="K143" t="n">
-        <v>0.004057139274664223</v>
+        <v>0.004875343525782228</v>
       </c>
     </row>
     <row r="144">
@@ -6740,31 +6740,31 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1478</v>
+        <v>1594</v>
       </c>
       <c r="D144" t="n">
-        <v>1.639956721570343</v>
+        <v>1.454698493238539</v>
       </c>
       <c r="E144" t="n">
-        <v>2.504816159023903</v>
+        <v>2.196775655029342</v>
       </c>
       <c r="F144" t="n">
-        <v>1478</v>
+        <v>1594</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1170335982460529</v>
+        <v>0.1169407134875655</v>
       </c>
       <c r="H144" t="n">
-        <v>1.717148421914317</v>
+        <v>1.535489357891493</v>
       </c>
       <c r="I144" t="n">
-        <v>0.05315612419508398</v>
+        <v>0.05042181618046016</v>
       </c>
       <c r="J144" t="n">
-        <v>0.6060130194528028</v>
+        <v>0.4814528333954513</v>
       </c>
       <c r="K144" t="n">
-        <v>0.003042588126845658</v>
+        <v>0.003213339485228062</v>
       </c>
     </row>
     <row r="145">
@@ -6775,11 +6775,11 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>20359</v>
+        <v>22337</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
-        <v>25.52421788813081</v>
+        <v>25.43814918329008</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -6800,31 +6800,31 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="D146" t="n">
-        <v>0.004470163024961948</v>
+        <v>0.005814643343910575</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1360219239722937</v>
+        <v>0.1772476299665868</v>
       </c>
       <c r="F146" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04105586651712656</v>
+        <v>0.05818011809606105</v>
       </c>
       <c r="H146" t="n">
-        <v>0.04449800064321607</v>
+        <v>0.05599677911959589</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02471681172028184</v>
+        <v>0.03255108988378197</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01889510871842504</v>
+        <v>0.02207061753142625</v>
       </c>
       <c r="K146" t="n">
-        <v>0.001795414020307362</v>
+        <v>0.002163144759833813</v>
       </c>
     </row>
     <row r="147">
@@ -6835,31 +6835,31 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2003</v>
+        <v>2454</v>
       </c>
       <c r="D147" t="n">
-        <v>0.584746684296988</v>
+        <v>0.767490242025815</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9867766250390559</v>
+        <v>1.314519127015956</v>
       </c>
       <c r="F147" t="n">
-        <v>2003</v>
+        <v>2454</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0909087813924998</v>
+        <v>0.1370756680844352</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6802751134382561</v>
+        <v>0.8902210970409214</v>
       </c>
       <c r="I147" t="n">
-        <v>0.0855581914074719</v>
+        <v>0.1127553306287155</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1148987656924874</v>
+        <v>0.1557230750331655</v>
       </c>
       <c r="K147" t="n">
-        <v>0.004275024053640664</v>
+        <v>0.004660871927626431</v>
       </c>
     </row>
     <row r="148">
@@ -6870,31 +6870,31 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>980</v>
+        <v>1171</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2897789902053773</v>
+        <v>0.3747705139685422</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5311847089324147</v>
+        <v>0.7010665989946574</v>
       </c>
       <c r="F148" t="n">
-        <v>980</v>
+        <v>1171</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05448902340140194</v>
+        <v>0.0752314527053386</v>
       </c>
       <c r="H148" t="n">
-        <v>0.3390191179933026</v>
+        <v>0.4320331579074264</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02799016120843589</v>
+        <v>0.03672222641762346</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1025262626353651</v>
+        <v>0.148484056815505</v>
       </c>
       <c r="K148" t="n">
-        <v>0.001858758390881121</v>
+        <v>0.002155588706955314</v>
       </c>
     </row>
     <row r="149">
@@ -6905,31 +6905,31 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="D149" t="n">
-        <v>0.00800105114467442</v>
+        <v>0.008160500903613865</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3854566720547155</v>
+        <v>0.3504578419961035</v>
       </c>
       <c r="F149" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1274553097318858</v>
+        <v>0.1308689328143373</v>
       </c>
       <c r="H149" t="n">
-        <v>0.08079475513659418</v>
+        <v>0.08064484223723412</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1413232241757214</v>
+        <v>0.1091085113584995</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02327693486586213</v>
+        <v>0.01767601771280169</v>
       </c>
       <c r="K149" t="n">
-        <v>0.003445675247348845</v>
+        <v>0.003253929316997528</v>
       </c>
     </row>
     <row r="150">
@@ -6940,31 +6940,31 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3383</v>
+        <v>3172</v>
       </c>
       <c r="D150" t="n">
-        <v>0.8515731215011328</v>
+        <v>0.9443688642932102</v>
       </c>
       <c r="E150" t="n">
-        <v>2.08382286306005</v>
+        <v>2.038166783051565</v>
       </c>
       <c r="F150" t="n">
-        <v>3383</v>
+        <v>3172</v>
       </c>
       <c r="G150" t="n">
-        <v>0.3032072766218334</v>
+        <v>0.2780229733325541</v>
       </c>
       <c r="H150" t="n">
-        <v>1.042311234632507</v>
+        <v>1.12319569196552</v>
       </c>
       <c r="I150" t="n">
-        <v>0.4538810271769762</v>
+        <v>0.3144873034907505</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2575419658096507</v>
+        <v>0.2969003515318036</v>
       </c>
       <c r="K150" t="n">
-        <v>0.007410835125483572</v>
+        <v>0.006825927994213998</v>
       </c>
     </row>
     <row r="151">
@@ -6975,31 +6975,31 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1589</v>
+        <v>1596</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4224783738609403</v>
+        <v>0.5004545694682747</v>
       </c>
       <c r="E151" t="n">
-        <v>1.025364996981807</v>
+        <v>1.107553421054035</v>
       </c>
       <c r="F151" t="n">
-        <v>1589</v>
+        <v>1596</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1654231775319204</v>
+        <v>0.1663723329547793</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5100034245988354</v>
+        <v>0.5869215000420809</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1662048368016258</v>
+        <v>0.1257275701500475</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1711831064894795</v>
+        <v>0.2157109674299136</v>
       </c>
       <c r="K151" t="n">
-        <v>0.003432592726312578</v>
+        <v>0.003467132453806698</v>
       </c>
     </row>
     <row r="152">
@@ -7010,31 +7010,31 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>980</v>
+        <v>1171</v>
       </c>
       <c r="D152" t="n">
-        <v>0.7354063108796254</v>
+        <v>1.107539996737614</v>
       </c>
       <c r="E152" t="n">
-        <v>1.134558757999912</v>
+        <v>1.750154048088007</v>
       </c>
       <c r="F152" t="n">
-        <v>980</v>
+        <v>1171</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05601147096604109</v>
+        <v>0.07746448181569576</v>
       </c>
       <c r="H152" t="n">
-        <v>0.7860471165040508</v>
+        <v>1.166891488130204</v>
       </c>
       <c r="I152" t="n">
-        <v>0.02901700756046921</v>
+        <v>0.03852511232253164</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2559526162222028</v>
+        <v>0.4581213678466156</v>
       </c>
       <c r="K152" t="n">
-        <v>0.001963946735486388</v>
+        <v>0.002382495091296732</v>
       </c>
     </row>
     <row r="153">
@@ -7045,11 +7045,11 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>19228</v>
+        <v>20583</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
-        <v>25.09899031114765</v>
+        <v>25.47505717689637</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
@@ -7070,31 +7070,31 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="D154" t="n">
-        <v>0.007865845807828009</v>
+        <v>0.006290333112701774</v>
       </c>
       <c r="E154" t="n">
-        <v>0.2668686250690371</v>
+        <v>0.2074461160227656</v>
       </c>
       <c r="F154" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="G154" t="n">
-        <v>0.09140142425894737</v>
+        <v>0.07570547785144299</v>
       </c>
       <c r="H154" t="n">
-        <v>0.08405850117560476</v>
+        <v>0.06143308326136321</v>
       </c>
       <c r="I154" t="n">
-        <v>0.04867942817509174</v>
+        <v>0.0376889108447358</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02978435182012618</v>
+        <v>0.02330792648717761</v>
       </c>
       <c r="K154" t="n">
-        <v>0.003439256455749273</v>
+        <v>0.002597800921648741</v>
       </c>
     </row>
     <row r="155">
@@ -7105,31 +7105,31 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4074</v>
+        <v>2970</v>
       </c>
       <c r="D155" t="n">
-        <v>1.232547776307911</v>
+        <v>0.9491663181688637</v>
       </c>
       <c r="E155" t="n">
-        <v>2.040097926976159</v>
+        <v>1.621070924913511</v>
       </c>
       <c r="F155" t="n">
-        <v>4074</v>
+        <v>2970</v>
       </c>
       <c r="G155" t="n">
-        <v>0.2222574941115454</v>
+        <v>0.1798518777359277</v>
       </c>
       <c r="H155" t="n">
-        <v>1.430837844731286</v>
+        <v>1.098398668691516</v>
       </c>
       <c r="I155" t="n">
-        <v>0.2145498882746324</v>
+        <v>0.1597371286479756</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1406266448320821</v>
+        <v>0.1603448818204924</v>
       </c>
       <c r="K155" t="n">
-        <v>0.008685673121362925</v>
+        <v>0.005597451818175614</v>
       </c>
     </row>
     <row r="156">
@@ -7140,31 +7140,31 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1904</v>
+        <v>1266</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5247641341993585</v>
+        <v>0.4317982245702296</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9396104899933562</v>
+        <v>0.7849174829898402</v>
       </c>
       <c r="F156" t="n">
-        <v>1904</v>
+        <v>1266</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1193757141008973</v>
+        <v>0.09085727692581713</v>
       </c>
       <c r="H156" t="n">
-        <v>0.6172556835226715</v>
+        <v>0.4950337099144235</v>
       </c>
       <c r="I156" t="n">
-        <v>0.05562610900960863</v>
+        <v>0.04144439136143774</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1334106100257486</v>
+        <v>0.1481423028744757</v>
       </c>
       <c r="K156" t="n">
-        <v>0.003561388934031129</v>
+        <v>0.002369884052313864</v>
       </c>
     </row>
     <row r="157">
@@ -7175,31 +7175,31 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01376931648701429</v>
+        <v>0.008261785842478275</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6281655380735174</v>
+        <v>0.3388560039456934</v>
       </c>
       <c r="F157" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="G157" t="n">
-        <v>0.22278638696298</v>
+        <v>0.1318491755519062</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1425748894689605</v>
+        <v>0.08129836688749492</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2081446219235659</v>
+        <v>0.09562627587001771</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03365317021962255</v>
+        <v>0.01778996689245105</v>
       </c>
       <c r="K157" t="n">
-        <v>0.005944694741629064</v>
+        <v>0.003377367393113673</v>
       </c>
     </row>
     <row r="158">
@@ -7210,31 +7210,31 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5639</v>
+        <v>3784</v>
       </c>
       <c r="D158" t="n">
-        <v>1.509180246735923</v>
+        <v>1.148269106633961</v>
       </c>
       <c r="E158" t="n">
-        <v>3.345349915907718</v>
+        <v>2.374280390911736</v>
       </c>
       <c r="F158" t="n">
-        <v>5639</v>
+        <v>3784</v>
       </c>
       <c r="G158" t="n">
-        <v>0.507720309891738</v>
+        <v>0.3276656111702323</v>
       </c>
       <c r="H158" t="n">
-        <v>1.832525297766551</v>
+        <v>1.353242918732576</v>
       </c>
       <c r="I158" t="n">
-        <v>0.643408908508718</v>
+        <v>0.3566178731853142</v>
       </c>
       <c r="J158" t="n">
-        <v>0.3170232720440254</v>
+        <v>0.3066587835783139</v>
       </c>
       <c r="K158" t="n">
-        <v>0.01252745534293354</v>
+        <v>0.008160747936926782</v>
       </c>
     </row>
     <row r="159">
@@ -7245,31 +7245,31 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2785</v>
+        <v>1645</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6765705293510109</v>
+        <v>0.5395109516102821</v>
       </c>
       <c r="E159" t="n">
-        <v>1.595978945959359</v>
+        <v>1.125550504075363</v>
       </c>
       <c r="F159" t="n">
-        <v>2785</v>
+        <v>1645</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2895283374236897</v>
+        <v>0.1690273766871542</v>
       </c>
       <c r="H159" t="n">
-        <v>0.8274968672776595</v>
+        <v>0.6276905746199191</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2423352034529671</v>
+        <v>0.1106439131544903</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2145861629396677</v>
+        <v>0.2049905619351193</v>
       </c>
       <c r="K159" t="n">
-        <v>0.006215434172190726</v>
+        <v>0.003593196859583259</v>
       </c>
     </row>
     <row r="160">
@@ -7280,31 +7280,31 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1904</v>
+        <v>1266</v>
       </c>
       <c r="D160" t="n">
-        <v>1.749396681087092</v>
+        <v>1.315700188744813</v>
       </c>
       <c r="E160" t="n">
-        <v>2.510164774022996</v>
+        <v>1.962388712912798</v>
       </c>
       <c r="F160" t="n">
-        <v>1904</v>
+        <v>1266</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1270820992067456</v>
+        <v>0.09686682873871177</v>
       </c>
       <c r="H160" t="n">
-        <v>1.850634813075885</v>
+        <v>1.380547118140385</v>
       </c>
       <c r="I160" t="n">
-        <v>0.0587456306675449</v>
+        <v>0.04341298260260373</v>
       </c>
       <c r="J160" t="n">
-        <v>0.4587831281824037</v>
+        <v>0.4315613850485533</v>
       </c>
       <c r="K160" t="n">
-        <v>0.003976459032855928</v>
+        <v>0.002619598410092294</v>
       </c>
     </row>
     <row r="161">
@@ -7315,11 +7315,11 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>21515</v>
+        <v>21632</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
-        <v>25.25736249808688</v>
+        <v>25.14381222613156</v>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
@@ -7340,31 +7340,31 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="D162" t="n">
-        <v>0.004906097077764571</v>
+        <v>0.007975516724400222</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1558194790268317</v>
+        <v>0.2245836750371382</v>
       </c>
       <c r="F162" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05188869428820908</v>
+        <v>0.07167242374271154</v>
       </c>
       <c r="H162" t="n">
-        <v>0.04903066321276128</v>
+        <v>0.08089118811767548</v>
       </c>
       <c r="I162" t="n">
-        <v>0.02759607182815671</v>
+        <v>0.03518647432792932</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01970889919903129</v>
+        <v>0.02404842746909708</v>
       </c>
       <c r="K162" t="n">
-        <v>0.002021474530920386</v>
+        <v>0.003260192926973104</v>
       </c>
     </row>
     <row r="163">
@@ -7375,31 +7375,31 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2347</v>
+        <v>3859</v>
       </c>
       <c r="D163" t="n">
-        <v>0.7443664404563606</v>
+        <v>1.112028287374415</v>
       </c>
       <c r="E163" t="n">
-        <v>1.248836957034655</v>
+        <v>1.765063183032908</v>
       </c>
       <c r="F163" t="n">
-        <v>2347</v>
+        <v>3859</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1270429722499102</v>
+        <v>0.1599048444768414</v>
       </c>
       <c r="H163" t="n">
-        <v>0.8578047276241705</v>
+        <v>1.297552773961797</v>
       </c>
       <c r="I163" t="n">
-        <v>0.1130998857552186</v>
+        <v>0.1543267149245366</v>
       </c>
       <c r="J163" t="n">
-        <v>0.132592341513373</v>
+        <v>0.123673535999842</v>
       </c>
       <c r="K163" t="n">
-        <v>0.005017159739509225</v>
+        <v>0.007258250610902905</v>
       </c>
     </row>
     <row r="164">
@@ -7410,31 +7410,31 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1122</v>
+        <v>1863</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3453035843558609</v>
+        <v>0.492723107454367</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6305288430303335</v>
+        <v>0.8429331020452082</v>
       </c>
       <c r="F164" t="n">
-        <v>1122</v>
+        <v>1863</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06849428825080395</v>
+        <v>0.09135400445666164</v>
       </c>
       <c r="H164" t="n">
-        <v>0.4004269139841199</v>
+        <v>0.579185426235199</v>
       </c>
       <c r="I164" t="n">
-        <v>0.03326664166525006</v>
+        <v>0.03826681699138135</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1200785483233631</v>
+        <v>0.120647446368821</v>
       </c>
       <c r="K164" t="n">
-        <v>0.002084973268210888</v>
+        <v>0.003404333023354411</v>
       </c>
     </row>
     <row r="165">
@@ -7445,31 +7445,31 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="D165" t="n">
-        <v>0.007521789288148284</v>
+        <v>0.01675753702875227</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3381357870530337</v>
+        <v>0.8886352479457855</v>
       </c>
       <c r="F165" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1232162360101938</v>
+        <v>0.2926583972293884</v>
       </c>
       <c r="H165" t="n">
-        <v>0.07728224864695221</v>
+        <v>0.1791118896799162</v>
       </c>
       <c r="I165" t="n">
-        <v>0.1090231194393709</v>
+        <v>0.3428506511263549</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01703057903796434</v>
+        <v>0.04629704833496362</v>
       </c>
       <c r="K165" t="n">
-        <v>0.003312512766569853</v>
+        <v>0.007217875448986888</v>
       </c>
     </row>
     <row r="166">
@@ -7480,31 +7480,31 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3077</v>
+        <v>7756</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8657285124063492</v>
+        <v>1.920680739218369</v>
       </c>
       <c r="E166" t="n">
-        <v>1.937994587002322</v>
+        <v>4.519098232965916</v>
       </c>
       <c r="F166" t="n">
-        <v>3077</v>
+        <v>7756</v>
       </c>
       <c r="G166" t="n">
-        <v>0.2731108178850263</v>
+        <v>0.6722678347723559</v>
       </c>
       <c r="H166" t="n">
-        <v>1.042636018944904</v>
+        <v>2.359755728044547</v>
       </c>
       <c r="I166" t="n">
-        <v>0.3372413116740063</v>
+        <v>1.114050166332163</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2603190902154893</v>
+        <v>0.3100826016161591</v>
       </c>
       <c r="K166" t="n">
-        <v>0.006952445954084396</v>
+        <v>0.01663936756085604</v>
       </c>
     </row>
     <row r="167">
@@ -7515,31 +7515,31 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1561</v>
+        <v>3710</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4284169970778748</v>
+        <v>0.8545616082847118</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9850826909532771</v>
+        <v>2.081515617086552</v>
       </c>
       <c r="F167" t="n">
-        <v>1561</v>
+        <v>3710</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1617967649362981</v>
+        <v>0.3798991882940754</v>
       </c>
       <c r="H167" t="n">
-        <v>0.5133071060990915</v>
+        <v>1.050288852769881</v>
       </c>
       <c r="I167" t="n">
-        <v>0.12989138555713</v>
+        <v>0.4168558374512941</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1678589212242514</v>
+        <v>0.2039278644369915</v>
       </c>
       <c r="K167" t="n">
-        <v>0.003421269939281046</v>
+        <v>0.008783293887972832</v>
       </c>
     </row>
     <row r="168">
@@ -7550,31 +7550,31 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1122</v>
+        <v>1863</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9328932970529422</v>
+        <v>1.331790370750241</v>
       </c>
       <c r="E168" t="n">
-        <v>1.449039699975401</v>
+        <v>1.838803321006708</v>
       </c>
       <c r="F168" t="n">
-        <v>1122</v>
+        <v>1863</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07114466093480587</v>
+        <v>0.09447763720527291</v>
       </c>
       <c r="H168" t="n">
-        <v>0.9886502805165946</v>
+        <v>1.419937743921764</v>
       </c>
       <c r="I168" t="n">
-        <v>0.03396436013281345</v>
+        <v>0.03920343553181738</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3467742206994444</v>
+        <v>0.2706566710257903</v>
       </c>
       <c r="K168" t="n">
-        <v>0.002236857544630766</v>
+        <v>0.003784502041526139</v>
       </c>
     </row>
     <row r="169">
@@ -7585,11 +7585,11 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>16186</v>
+        <v>20902</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>25.41743866598699</v>
+        <v>25.84259792405646</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
@@ -7610,31 +7610,31 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="D170" t="n">
-        <v>0.00396459735929966</v>
+        <v>0.007022128324024379</v>
       </c>
       <c r="E170" t="n">
-        <v>0.116552378050983</v>
+        <v>0.2223170090001076</v>
       </c>
       <c r="F170" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="G170" t="n">
-        <v>0.03664166259113699</v>
+        <v>0.07001897727604955</v>
       </c>
       <c r="H170" t="n">
-        <v>0.03949053434189409</v>
+        <v>0.07139078248292208</v>
       </c>
       <c r="I170" t="n">
-        <v>0.01904179807752371</v>
+        <v>0.04089422663673759</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01524926803540438</v>
+        <v>0.02953713375609368</v>
       </c>
       <c r="K170" t="n">
-        <v>0.001670778263360262</v>
+        <v>0.002694442053325474</v>
       </c>
     </row>
     <row r="171">
@@ -7645,31 +7645,31 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1936</v>
+        <v>3231</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5784189610276371</v>
+        <v>0.9285865139681846</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9212194250430912</v>
+        <v>1.61604628409259</v>
       </c>
       <c r="F171" t="n">
-        <v>1936</v>
+        <v>3231</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08302594756241888</v>
+        <v>0.1714067398570478</v>
       </c>
       <c r="H171" t="n">
-        <v>0.6669727765256539</v>
+        <v>1.089544258080423</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0771639043232426</v>
+        <v>0.1651021541329101</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07992137083783746</v>
+        <v>0.1654184542130679</v>
       </c>
       <c r="K171" t="n">
-        <v>0.003677448956295848</v>
+        <v>0.006033508921973407</v>
       </c>
     </row>
     <row r="172">
@@ -7680,31 +7680,31 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>901</v>
+        <v>1503</v>
       </c>
       <c r="D172" t="n">
-        <v>0.2827050659107044</v>
+        <v>0.4081465469207615</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4868020600406453</v>
+        <v>0.7849979819729924</v>
       </c>
       <c r="F172" t="n">
-        <v>901</v>
+        <v>1503</v>
       </c>
       <c r="G172" t="n">
-        <v>0.04796062014065683</v>
+        <v>0.09069203108083457</v>
       </c>
       <c r="H172" t="n">
-        <v>0.3256186887156218</v>
+        <v>0.481947855791077</v>
       </c>
       <c r="I172" t="n">
-        <v>0.02173174847848713</v>
+        <v>0.04702915344387293</v>
       </c>
       <c r="J172" t="n">
-        <v>0.08486350020393729</v>
+        <v>0.1542849414981902</v>
       </c>
       <c r="K172" t="n">
-        <v>0.001713338308036327</v>
+        <v>0.002781334915198386</v>
       </c>
     </row>
     <row r="173">
@@ -7715,31 +7715,31 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="D173" t="n">
-        <v>0.007113883621059358</v>
+        <v>0.01082038239110261</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4395123989088461</v>
+        <v>0.5131886390736327</v>
       </c>
       <c r="F173" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="G173" t="n">
-        <v>0.2357795604038984</v>
+        <v>0.1753307684557512</v>
       </c>
       <c r="H173" t="n">
-        <v>0.07222794799599797</v>
+        <v>0.1099711921997368</v>
       </c>
       <c r="I173" t="n">
-        <v>0.1042497233720496</v>
+        <v>0.1801153551787138</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01585119869560003</v>
+        <v>0.03116346127353609</v>
       </c>
       <c r="K173" t="n">
-        <v>0.003135899547487497</v>
+        <v>0.004453947651199996</v>
       </c>
     </row>
     <row r="174">
@@ -7750,31 +7750,31 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3455</v>
+        <v>4920</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9991242060204968</v>
+        <v>1.26929498789832</v>
       </c>
       <c r="E174" t="n">
-        <v>2.112059584003873</v>
+        <v>2.966702235047705</v>
       </c>
       <c r="F174" t="n">
-        <v>3455</v>
+        <v>4920</v>
       </c>
       <c r="G174" t="n">
-        <v>0.3026268763933331</v>
+        <v>0.4262269000755623</v>
       </c>
       <c r="H174" t="n">
-        <v>1.192609666497447</v>
+        <v>1.539949581841938</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3978008349658921</v>
+        <v>0.6165436778683215</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1912711199838668</v>
+        <v>0.3444809099892154</v>
       </c>
       <c r="K174" t="n">
-        <v>0.007640356780029833</v>
+        <v>0.01049757655709982</v>
       </c>
     </row>
     <row r="175">
@@ -7785,31 +7785,31 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1495</v>
+        <v>2220</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4726579728303477</v>
+        <v>0.5223905065795407</v>
       </c>
       <c r="E175" t="n">
-        <v>0.973749152966775</v>
+        <v>1.3364972070558</v>
       </c>
       <c r="F175" t="n">
-        <v>1495</v>
+        <v>2220</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1535984490765259</v>
+        <v>0.2286745024612173</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5520936045795679</v>
+        <v>0.6424757845234126</v>
       </c>
       <c r="I175" t="n">
-        <v>0.1234008347382769</v>
+        <v>0.2179839403834194</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1328779538162053</v>
+        <v>0.2289465356152505</v>
       </c>
       <c r="K175" t="n">
-        <v>0.003279363038018346</v>
+        <v>0.005342190503142774</v>
       </c>
     </row>
     <row r="176">
@@ -7820,31 +7820,31 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>901</v>
+        <v>1503</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6297659676056355</v>
+        <v>1.24744613841176</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9307187059894204</v>
+        <v>1.95376052102074</v>
       </c>
       <c r="F176" t="n">
-        <v>901</v>
+        <v>1503</v>
       </c>
       <c r="G176" t="n">
-        <v>0.04936274664942175</v>
+        <v>0.09509279765188694</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6730773280141875</v>
+        <v>1.325527808745392</v>
       </c>
       <c r="I176" t="n">
-        <v>0.02352497633546591</v>
+        <v>0.04941033956129104</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1779206886421889</v>
+        <v>0.4718962063780054</v>
       </c>
       <c r="K176" t="n">
-        <v>0.001796088414266706</v>
+        <v>0.003035154193639755</v>
       </c>
     </row>
     <row r="177">
@@ -7855,11 +7855,11 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>18635</v>
+        <v>19816</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
-        <v>25.22874373674858</v>
+        <v>25.26280625769868</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
@@ -7880,31 +7880,31 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="D178" t="n">
-        <v>0.005901378695853055</v>
+        <v>0.007689991383813322</v>
       </c>
       <c r="E178" t="n">
-        <v>0.224551743012853</v>
+        <v>0.2419867580756545</v>
       </c>
       <c r="F178" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08105400658678263</v>
+        <v>0.08368803653866053</v>
       </c>
       <c r="H178" t="n">
-        <v>0.06237042299471796</v>
+        <v>0.07876951107755303</v>
       </c>
       <c r="I178" t="n">
-        <v>0.04463326593395323</v>
+        <v>0.04116291366517544</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02732300141360611</v>
+        <v>0.02591475809458643</v>
       </c>
       <c r="K178" t="n">
-        <v>0.002409437322057784</v>
+        <v>0.003191150375641882</v>
       </c>
     </row>
     <row r="179">
@@ -7915,31 +7915,31 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3202</v>
+        <v>3838</v>
       </c>
       <c r="D179" t="n">
-        <v>1.049632822046988</v>
+        <v>1.142775939079002</v>
       </c>
       <c r="E179" t="n">
-        <v>1.947157172020525</v>
+        <v>1.876387987984344</v>
       </c>
       <c r="F179" t="n">
-        <v>3202</v>
+        <v>3838</v>
       </c>
       <c r="G179" t="n">
-        <v>0.2220678107114509</v>
+        <v>0.1879745944170281</v>
       </c>
       <c r="H179" t="n">
-        <v>1.212172204745002</v>
+        <v>1.326454191468656</v>
       </c>
       <c r="I179" t="n">
-        <v>0.2039808481931686</v>
+        <v>0.1786610388662666</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2836079571861774</v>
+        <v>0.1544335318030789</v>
       </c>
       <c r="K179" t="n">
-        <v>0.006902216584421694</v>
+        <v>0.007191949989646673</v>
       </c>
     </row>
     <row r="180">
@@ -7950,31 +7950,31 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1300</v>
+        <v>1827</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4399557722499594</v>
+        <v>0.5007001225603744</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8313470541033894</v>
+        <v>0.8999002119526267</v>
       </c>
       <c r="F180" t="n">
-        <v>1300</v>
+        <v>1827</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1074352749856189</v>
+        <v>0.1082707522436976</v>
       </c>
       <c r="H180" t="n">
-        <v>0.5078970401082188</v>
+        <v>0.5875653875991702</v>
       </c>
       <c r="I180" t="n">
-        <v>0.04956710303667933</v>
+        <v>0.0473540595266968</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1568395325448364</v>
+        <v>0.1433384908596054</v>
       </c>
       <c r="K180" t="n">
-        <v>0.002452762215398252</v>
+        <v>0.003391964477486908</v>
       </c>
     </row>
     <row r="181">
@@ -7985,31 +7985,31 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="D181" t="n">
-        <v>0.007067340658977628</v>
+        <v>0.01465099619235843</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2967544168932363</v>
+        <v>0.714732290012762</v>
       </c>
       <c r="F181" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1174278969410807</v>
+        <v>0.2406999911181629</v>
       </c>
       <c r="H181" t="n">
-        <v>0.07421965198591352</v>
+        <v>0.1519299725769088</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0782254544319585</v>
+        <v>0.2621263038599864</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01585359638556838</v>
+        <v>0.03713889874052256</v>
       </c>
       <c r="K181" t="n">
-        <v>0.003244679304771125</v>
+        <v>0.006080297520384192</v>
       </c>
     </row>
     <row r="182">
@@ -8020,31 +8020,31 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3546</v>
+        <v>6392</v>
       </c>
       <c r="D182" t="n">
-        <v>1.121404998935759</v>
+        <v>1.662624982418492</v>
       </c>
       <c r="E182" t="n">
-        <v>2.310329679981805</v>
+        <v>3.808149178978056</v>
       </c>
       <c r="F182" t="n">
-        <v>3546</v>
+        <v>6392</v>
       </c>
       <c r="G182" t="n">
-        <v>0.3152324437396601</v>
+        <v>0.5519144091522321</v>
       </c>
       <c r="H182" t="n">
-        <v>1.318290081690066</v>
+        <v>2.022652718354948</v>
       </c>
       <c r="I182" t="n">
-        <v>0.3302191864931956</v>
+        <v>0.8469648505561054</v>
       </c>
       <c r="J182" t="n">
-        <v>0.3187824101187289</v>
+        <v>0.3347931206226349</v>
       </c>
       <c r="K182" t="n">
-        <v>0.008035986335016787</v>
+        <v>0.0135953527642414</v>
       </c>
     </row>
     <row r="183">
@@ -8055,31 +8055,31 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1478</v>
+        <v>3038</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4809838313376531</v>
+        <v>0.7495197211392224</v>
       </c>
       <c r="E183" t="n">
-        <v>1.014576454996131</v>
+        <v>1.780089867999777</v>
       </c>
       <c r="F183" t="n">
-        <v>1478</v>
+        <v>3038</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1529051458928734</v>
+        <v>0.3123352460097522</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5606421752599999</v>
+        <v>0.9099267149576917</v>
       </c>
       <c r="I183" t="n">
-        <v>0.08636719861533493</v>
+        <v>0.313294407678768</v>
       </c>
       <c r="J183" t="n">
-        <v>0.203047372517176</v>
+        <v>0.2196843551937491</v>
       </c>
       <c r="K183" t="n">
-        <v>0.003357179230079055</v>
+        <v>0.00716080644633621</v>
       </c>
     </row>
     <row r="184">
@@ -8090,31 +8090,31 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1300</v>
+        <v>1827</v>
       </c>
       <c r="D184" t="n">
-        <v>1.414983128081076</v>
+        <v>1.418892820365727</v>
       </c>
       <c r="E184" t="n">
-        <v>2.201432536938228</v>
+        <v>2.047516945982352</v>
       </c>
       <c r="F184" t="n">
-        <v>1300</v>
+        <v>1827</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1117022214457393</v>
+        <v>0.1107269080821425</v>
       </c>
       <c r="H184" t="n">
-        <v>1.486313023604453</v>
+        <v>1.507330550113693</v>
       </c>
       <c r="I184" t="n">
-        <v>0.05152873718179762</v>
+        <v>0.04881917790044099</v>
       </c>
       <c r="J184" t="n">
-        <v>0.5416449563344941</v>
+        <v>0.3663715043803677</v>
       </c>
       <c r="K184" t="n">
-        <v>0.002575322170741856</v>
+        <v>0.003687466261908412</v>
       </c>
     </row>
     <row r="185">
@@ -8125,11 +8125,11 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>21345</v>
+        <v>21084</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
-        <v>25.05129610700533</v>
+        <v>25.71206705376972</v>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
@@ -8150,31 +8150,31 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="D186" t="n">
-        <v>0.007718625711277127</v>
+        <v>0.006333239725790918</v>
       </c>
       <c r="E186" t="n">
-        <v>0.2468337049940601</v>
+        <v>0.1916124190902337</v>
       </c>
       <c r="F186" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="G186" t="n">
-        <v>0.07951040286570787</v>
+        <v>0.06503167084883898</v>
       </c>
       <c r="H186" t="n">
-        <v>0.08297485334333032</v>
+        <v>0.05956620979122818</v>
       </c>
       <c r="I186" t="n">
-        <v>0.04341249715071172</v>
+        <v>0.03528655355330557</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02807919285260141</v>
+        <v>0.02271222462877631</v>
       </c>
       <c r="K186" t="n">
-        <v>0.003409842145629227</v>
+        <v>0.002309605362825096</v>
       </c>
     </row>
     <row r="187">
@@ -8185,31 +8185,31 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3994</v>
+        <v>2801</v>
       </c>
       <c r="D187" t="n">
-        <v>1.116854263353162</v>
+        <v>1.019973319489509</v>
       </c>
       <c r="E187" t="n">
-        <v>1.832016394939274</v>
+        <v>1.623378737014718</v>
       </c>
       <c r="F187" t="n">
-        <v>3994</v>
+        <v>2801</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1851644123671576</v>
+        <v>0.1586297650355846</v>
       </c>
       <c r="H187" t="n">
-        <v>1.30789279716555</v>
+        <v>1.160895006265491</v>
       </c>
       <c r="I187" t="n">
-        <v>0.1774592428700998</v>
+        <v>0.150286961812526</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1320787504082546</v>
+        <v>0.1319628141354769</v>
       </c>
       <c r="K187" t="n">
-        <v>0.007647011429071426</v>
+        <v>0.005311705637723207</v>
       </c>
     </row>
     <row r="188">
@@ -8220,31 +8220,31 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1891</v>
+        <v>1254</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4762872599530965</v>
+        <v>0.4105679892236367</v>
       </c>
       <c r="E188" t="n">
-        <v>0.8619465449592099</v>
+        <v>0.7331815150100738</v>
       </c>
       <c r="F188" t="n">
-        <v>1891</v>
+        <v>1254</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1047857701778412</v>
+        <v>0.08239684964064509</v>
       </c>
       <c r="H188" t="n">
-        <v>0.5678335916018113</v>
+        <v>0.4727753615006804</v>
       </c>
       <c r="I188" t="n">
-        <v>0.04940084891859442</v>
+        <v>0.04058141785208136</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1259959454182535</v>
+        <v>0.1281366018811241</v>
       </c>
       <c r="K188" t="n">
-        <v>0.003574410220608115</v>
+        <v>0.002328735659830272</v>
       </c>
     </row>
     <row r="189">
@@ -8255,31 +8255,31 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="D189" t="n">
-        <v>0.01677471050061285</v>
+        <v>0.00879679003264755</v>
       </c>
       <c r="E189" t="n">
-        <v>1.020010124077089</v>
+        <v>0.3817778680240735</v>
       </c>
       <c r="F189" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="G189" t="n">
-        <v>0.3956866028020158</v>
+        <v>0.143410125747323</v>
       </c>
       <c r="H189" t="n">
-        <v>0.1748852162854746</v>
+        <v>0.08905456156935543</v>
       </c>
       <c r="I189" t="n">
-        <v>0.3699105597333983</v>
+        <v>0.1156099237268791</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05217826284933835</v>
+        <v>0.02034457703121006</v>
       </c>
       <c r="K189" t="n">
-        <v>0.007410614052787423</v>
+        <v>0.003563492326065898</v>
       </c>
     </row>
     <row r="190">
@@ -8290,31 +8290,31 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7509</v>
+        <v>3634</v>
       </c>
       <c r="D190" t="n">
-        <v>1.707774106180295</v>
+        <v>1.107521547819488</v>
       </c>
       <c r="E190" t="n">
-        <v>4.365701874019578</v>
+        <v>2.301489906967618</v>
       </c>
       <c r="F190" t="n">
-        <v>7509</v>
+        <v>3634</v>
       </c>
       <c r="G190" t="n">
-        <v>0.6646128861466423</v>
+        <v>0.3189934022957459</v>
       </c>
       <c r="H190" t="n">
-        <v>2.146656760247424</v>
+        <v>1.312842648243532</v>
       </c>
       <c r="I190" t="n">
-        <v>1.102180222515017</v>
+        <v>0.3636818130034953</v>
       </c>
       <c r="J190" t="n">
-        <v>0.3916481683263555</v>
+        <v>0.2766616949811578</v>
       </c>
       <c r="K190" t="n">
-        <v>0.01678050402551889</v>
+        <v>0.007886010804213583</v>
       </c>
     </row>
     <row r="191">
@@ -8325,31 +8325,31 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3539</v>
+        <v>1751</v>
       </c>
       <c r="D191" t="n">
-        <v>0.7221530999522656</v>
+        <v>0.5353197037475184</v>
       </c>
       <c r="E191" t="n">
-        <v>2.01352813700214</v>
+        <v>1.173935922910459</v>
       </c>
       <c r="F191" t="n">
-        <v>3539</v>
+        <v>1751</v>
       </c>
       <c r="G191" t="n">
-        <v>0.3669494685018435</v>
+        <v>0.1866622708039358</v>
       </c>
       <c r="H191" t="n">
-        <v>0.913643425446935</v>
+        <v>0.6341730535496026</v>
       </c>
       <c r="I191" t="n">
-        <v>0.4427595597226173</v>
+        <v>0.1329700277419761</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2622479703277349</v>
+        <v>0.2058521187864244</v>
       </c>
       <c r="K191" t="n">
-        <v>0.007659741560928524</v>
+        <v>0.003842787817120552</v>
       </c>
     </row>
     <row r="192">
@@ -8360,31 +8360,31 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1891</v>
+        <v>1254</v>
       </c>
       <c r="D192" t="n">
-        <v>1.347125002881512</v>
+        <v>1.209752134862356</v>
       </c>
       <c r="E192" t="n">
-        <v>1.947462836047634</v>
+        <v>1.941353779984638</v>
       </c>
       <c r="F192" t="n">
-        <v>1891</v>
+        <v>1254</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1072357802186161</v>
+        <v>0.08393971959594637</v>
       </c>
       <c r="H192" t="n">
-        <v>1.439108953694813</v>
+        <v>1.272922012838535</v>
       </c>
       <c r="I192" t="n">
-        <v>0.05035970988683403</v>
+        <v>0.04185736435465515</v>
       </c>
       <c r="J192" t="n">
-        <v>0.336399324471131</v>
+        <v>0.5327940022107214</v>
       </c>
       <c r="K192" t="n">
-        <v>0.003783923806622624</v>
+        <v>0.002513573272153735</v>
       </c>
     </row>
     <row r="193">
@@ -8395,11 +8395,11 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>22290</v>
+        <v>19008</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
-        <v>25.73054004099686</v>
+        <v>25.67450976115651</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
@@ -8420,31 +8420,31 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="D194" t="n">
-        <v>0.005757228587754071</v>
+        <v>0.006682086153887212</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1882692520739511</v>
+        <v>0.3206233299570158</v>
       </c>
       <c r="F194" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06113374896813184</v>
+        <v>0.06620699120685458</v>
       </c>
       <c r="H194" t="n">
-        <v>0.05887184862513095</v>
+        <v>0.06664163549430668</v>
       </c>
       <c r="I194" t="n">
-        <v>0.03535076521802694</v>
+        <v>0.03542812203522772</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02375317038968205</v>
+        <v>0.1417742418125272</v>
       </c>
       <c r="K194" t="n">
-        <v>0.002437244402244687</v>
+        <v>0.002732789027504623</v>
       </c>
     </row>
     <row r="195">
@@ -8455,31 +8455,31 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2829</v>
+        <v>3284</v>
       </c>
       <c r="D195" t="n">
-        <v>0.8328728951746598</v>
+        <v>0.9844299270771444</v>
       </c>
       <c r="E195" t="n">
-        <v>1.379389255074784</v>
+        <v>1.581074523972347</v>
       </c>
       <c r="F195" t="n">
-        <v>2829</v>
+        <v>3284</v>
       </c>
       <c r="G195" t="n">
-        <v>0.141804400482215</v>
+        <v>0.1526989460689947</v>
       </c>
       <c r="H195" t="n">
-        <v>0.9684652059804648</v>
+        <v>1.139976181555539</v>
       </c>
       <c r="I195" t="n">
-        <v>0.129948828369379</v>
+        <v>0.1450498874764889</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1182999503798783</v>
+        <v>0.1186280533438548</v>
       </c>
       <c r="K195" t="n">
-        <v>0.005425080074928701</v>
+        <v>0.006150342640466988</v>
       </c>
     </row>
     <row r="196">
@@ -8490,31 +8490,31 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1309</v>
+        <v>1527</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3811131645925343</v>
+        <v>0.4561271361308172</v>
       </c>
       <c r="E196" t="n">
-        <v>0.6883391039445996</v>
+        <v>0.9030398920876905</v>
       </c>
       <c r="F196" t="n">
-        <v>1309</v>
+        <v>1527</v>
       </c>
       <c r="G196" t="n">
-        <v>0.07655601145233959</v>
+        <v>0.2058417527005076</v>
       </c>
       <c r="H196" t="n">
-        <v>0.4446356114931405</v>
+        <v>0.5318642762722448</v>
       </c>
       <c r="I196" t="n">
-        <v>0.04012240818701684</v>
+        <v>0.04136129433754832</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1173638316104189</v>
+        <v>0.1126472196774557</v>
       </c>
       <c r="K196" t="n">
-        <v>0.002463217475451529</v>
+        <v>0.002854298800230026</v>
       </c>
     </row>
     <row r="197">
@@ -8525,31 +8525,31 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="D197" t="n">
-        <v>0.01019762980286032</v>
+        <v>0.0114225575234741</v>
       </c>
       <c r="E197" t="n">
-        <v>0.6359211950330064</v>
+        <v>0.6844520299928263</v>
       </c>
       <c r="F197" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="G197" t="n">
-        <v>0.3098770616343245</v>
+        <v>0.1950224746251479</v>
       </c>
       <c r="H197" t="n">
-        <v>0.107693298603408</v>
+        <v>0.2548524885205552</v>
       </c>
       <c r="I197" t="n">
-        <v>0.1726328390650451</v>
+        <v>0.1869390098145232</v>
       </c>
       <c r="J197" t="n">
-        <v>0.028808229486458</v>
+        <v>0.02904639299958944</v>
       </c>
       <c r="K197" t="n">
-        <v>0.004658708581700921</v>
+        <v>0.004934158409014344</v>
       </c>
     </row>
     <row r="198">
@@ -8560,31 +8560,31 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4696</v>
+        <v>5198</v>
       </c>
       <c r="D198" t="n">
-        <v>1.278539232327603</v>
+        <v>1.408757403260097</v>
       </c>
       <c r="E198" t="n">
-        <v>2.902511143009178</v>
+        <v>3.064758607069962</v>
       </c>
       <c r="F198" t="n">
-        <v>4696</v>
+        <v>5198</v>
       </c>
       <c r="G198" t="n">
-        <v>0.4192549081053585</v>
+        <v>0.4480752765666693</v>
       </c>
       <c r="H198" t="n">
-        <v>1.541563899256289</v>
+        <v>1.691980408621021</v>
       </c>
       <c r="I198" t="n">
-        <v>0.5677522846963257</v>
+        <v>0.6017674783943221</v>
       </c>
       <c r="J198" t="n">
-        <v>0.3364400122081861</v>
+        <v>0.2810403231997043</v>
       </c>
       <c r="K198" t="n">
-        <v>0.01047064340673387</v>
+        <v>0.01105401106178761</v>
       </c>
     </row>
     <row r="199">
@@ -8595,31 +8595,31 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2178</v>
+        <v>2484</v>
       </c>
       <c r="D199" t="n">
-        <v>0.586366331204772</v>
+        <v>0.7817687686765566</v>
       </c>
       <c r="E199" t="n">
-        <v>1.371802277048118</v>
+        <v>1.593950249953195</v>
       </c>
       <c r="F199" t="n">
-        <v>2178</v>
+        <v>2484</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2257090235361829</v>
+        <v>0.2541956417262554</v>
       </c>
       <c r="H199" t="n">
-        <v>0.704771542456001</v>
+        <v>0.9136754737701267</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2030311648268253</v>
+        <v>0.2184721768135205</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2210794877028093</v>
+        <v>0.1879209527978674</v>
       </c>
       <c r="K199" t="n">
-        <v>0.004759269184432924</v>
+        <v>0.005247142631560564</v>
       </c>
     </row>
     <row r="200">
@@ -8630,31 +8630,31 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1309</v>
+        <v>1527</v>
       </c>
       <c r="D200" t="n">
-        <v>1.220459077740088</v>
+        <v>1.286119381315075</v>
       </c>
       <c r="E200" t="n">
-        <v>1.69705067994073</v>
+        <v>1.810086665907875</v>
       </c>
       <c r="F200" t="n">
-        <v>1309</v>
+        <v>1527</v>
       </c>
       <c r="G200" t="n">
-        <v>0.07931429822929204</v>
+        <v>0.09154191461857408</v>
       </c>
       <c r="H200" t="n">
-        <v>1.2867136701243</v>
+        <v>1.364798938622698</v>
       </c>
       <c r="I200" t="n">
-        <v>0.04120465274900198</v>
+        <v>0.04402522218879312</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2796689164824784</v>
+        <v>0.2974077414255589</v>
       </c>
       <c r="K200" t="n">
-        <v>0.002625527675263584</v>
+        <v>0.003147342707961798</v>
       </c>
     </row>
     <row r="201">
@@ -8665,11 +8665,11 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>22508</v>
+        <v>19079</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
-        <v>25.21233792114072</v>
+        <v>24.95402143686078</v>
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
@@ -8690,31 +8690,31 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006675415597856045</v>
+        <v>0.007051709494553506</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2259701911266893</v>
+        <v>0.2277272717654705</v>
       </c>
       <c r="F202" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="G202" t="n">
-        <v>0.07035956684034318</v>
+        <v>0.07175357303116471</v>
       </c>
       <c r="H202" t="n">
-        <v>0.0755799898924306</v>
+        <v>0.07711090002208948</v>
       </c>
       <c r="I202" t="n">
-        <v>0.03818615657277405</v>
+        <v>0.03815787767525762</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0313688994338736</v>
+        <v>0.02984027984552086</v>
       </c>
       <c r="K202" t="n">
-        <v>0.002773747984319925</v>
+        <v>0.002786479978822172</v>
       </c>
     </row>
     <row r="203">
@@ -8725,31 +8725,31 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3220.72</v>
+        <v>3219.12</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9532410519849509</v>
+        <v>0.9771134707937017</v>
       </c>
       <c r="E203" t="n">
-        <v>1.61771051636897</v>
+        <v>1.633068658239208</v>
       </c>
       <c r="F203" t="n">
-        <v>3220.72</v>
+        <v>3219.12</v>
       </c>
       <c r="G203" t="n">
-        <v>0.168471721438691</v>
+        <v>0.1653504317486659</v>
       </c>
       <c r="H203" t="n">
-        <v>1.117609555828385</v>
+        <v>1.141653803065419</v>
       </c>
       <c r="I203" t="n">
-        <v>0.1554003460658714</v>
+        <v>0.154571177107282</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1516727172071114</v>
+        <v>0.1469828786095604</v>
       </c>
       <c r="K203" t="n">
-        <v>0.006428434657864273</v>
+        <v>0.006106100254692137</v>
       </c>
     </row>
     <row r="204">
@@ -8760,31 +8760,31 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1525.16</v>
+        <v>1540.72</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4298682155227289</v>
+        <v>0.4419428307376802</v>
       </c>
       <c r="E204" t="n">
-        <v>0.8044050112972037</v>
+        <v>0.8215260845189915</v>
       </c>
       <c r="F204" t="n">
-        <v>1525.16</v>
+        <v>1540.72</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09680646248161792</v>
+        <v>0.09649935433175415</v>
       </c>
       <c r="H204" t="n">
-        <v>0.5116316660027951</v>
+        <v>0.5232928619440645</v>
       </c>
       <c r="I204" t="n">
-        <v>0.04374809705186635</v>
+        <v>0.04353485026396811</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1410524640977383</v>
+        <v>0.1469018080970272</v>
       </c>
       <c r="K204" t="n">
-        <v>0.002880377969704568</v>
+        <v>0.002853132952004671</v>
       </c>
     </row>
     <row r="205">
@@ -8795,31 +8795,31 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="D205" t="n">
-        <v>0.01625684917904437</v>
+        <v>0.01210859972983599</v>
       </c>
       <c r="E205" t="n">
-        <v>0.6299444348318503</v>
+        <v>0.5996511015901342</v>
       </c>
       <c r="F205" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2248172392277047</v>
+        <v>0.2070695781614632</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1355676023568958</v>
+        <v>0.1360373157868162</v>
       </c>
       <c r="I205" t="n">
-        <v>0.2187975782202557</v>
+        <v>0.2065999778592959</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03181783557869494</v>
+        <v>0.03120714030694216</v>
       </c>
       <c r="K205" t="n">
-        <v>0.005291062775067985</v>
+        <v>0.005002786675468087</v>
       </c>
     </row>
     <row r="206">
@@ -8830,31 +8830,31 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>5098.88</v>
+        <v>4988.68</v>
       </c>
       <c r="D206" t="n">
-        <v>1.315725585604087</v>
+        <v>1.303429256919771</v>
       </c>
       <c r="E206" t="n">
-        <v>3.06732909115497</v>
+        <v>2.987071082270704</v>
       </c>
       <c r="F206" t="n">
-        <v>5098.88</v>
+        <v>4988.68</v>
       </c>
       <c r="G206" t="n">
-        <v>0.4562557979626581</v>
+        <v>0.4344093045592308</v>
       </c>
       <c r="H206" t="n">
-        <v>1.606965046250261</v>
+        <v>1.583174005299807</v>
       </c>
       <c r="I206" t="n">
-        <v>0.6461306934757158</v>
+        <v>0.6163386902725324</v>
       </c>
       <c r="J206" t="n">
-        <v>0.3171765116415918</v>
+        <v>0.3128444273211062</v>
       </c>
       <c r="K206" t="n">
-        <v>0.01138418523129076</v>
+        <v>0.01074137380346656</v>
       </c>
     </row>
     <row r="207">
@@ -8865,31 +8865,31 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2486.88</v>
+        <v>2460.28</v>
       </c>
       <c r="D207" t="n">
-        <v>0.6151774802152068</v>
+        <v>0.6358521350938827</v>
       </c>
       <c r="E207" t="n">
-        <v>1.502778438511305</v>
+        <v>1.513012536931783</v>
       </c>
       <c r="F207" t="n">
-        <v>2486.88</v>
+        <v>2460.28</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2627512917015701</v>
+        <v>0.2593259274819866</v>
       </c>
       <c r="H207" t="n">
-        <v>0.7504948331229389</v>
+        <v>0.7688009749585762</v>
       </c>
       <c r="I207" t="n">
-        <v>0.2545542509900406</v>
+        <v>0.244149090689607</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2152792976191267</v>
+        <v>0.2206836913898587</v>
       </c>
       <c r="K207" t="n">
-        <v>0.005477947778999805</v>
+        <v>0.005604264033026993</v>
       </c>
     </row>
     <row r="208">
@@ -8900,31 +8900,31 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1525.16</v>
+        <v>1540.72</v>
       </c>
       <c r="D208" t="n">
-        <v>1.286822693585418</v>
+        <v>1.309909439445473</v>
       </c>
       <c r="E208" t="n">
-        <v>1.934519409202039</v>
+        <v>1.958271364565007</v>
       </c>
       <c r="F208" t="n">
-        <v>1525.16</v>
+        <v>1540.72</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09493093646131456</v>
+        <v>0.09525201891083271</v>
       </c>
       <c r="H208" t="n">
-        <v>1.363589340830222</v>
+        <v>1.387042174595408</v>
       </c>
       <c r="I208" t="n">
-        <v>0.04509918017312884</v>
+        <v>0.045317253456451</v>
       </c>
       <c r="J208" t="n">
-        <v>0.4191839494882151</v>
+        <v>0.4186115843616426</v>
       </c>
       <c r="K208" t="n">
-        <v>0.003067455035634339</v>
+        <v>0.003123594112694264</v>
       </c>
     </row>
     <row r="209">
@@ -8935,11 +8935,11 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>20684.72</v>
+        <v>20594.4</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
-        <v>25.45964766086079</v>
+        <v>25.51779833084438</v>
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
